--- a/data/hotels_by_city/Houston/Houston_shard_605.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_605.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d1837056-Reviews-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Staybridge-Suites-Houston-Stafford-Sugar-Land.h3873258.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1059 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r601643071-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>1837056</t>
+  </si>
+  <si>
+    <t>601643071</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>BAIT AND SWITCH ON ROOM AND RATE</t>
+  </si>
+  <si>
+    <t>Reserved a one bedroom suite with king bed well in advance of arrival and received confirmation. Upon arrival, was given a studio with a queen bed. Went back to front desk, stated this is not what I reserved and was told my only option was a studio with a king. I asked if the property actually had one bedroom suites and was told they are all sold out. When I stated that since I am getting a lesser room than I paid for, I was told that it is the same rate (it is not) and that I should be happy because I got a really great rate. Staybridge should have alerted me in advance that they were sold out versus confirming that I was getting what I paid for, not charged for me for a room I did not receive, and if there was some sort of last minute screw up, they should have at least charged me something less since I got a studio. Since this was a complete rip-off  I won't ever book a Staybridge property again, but if you choose to do so, call ahead regardless of your email confirmation to ensure that you actually receive the room you paid for versus the bait and switch.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00gc, Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Reserved a one bedroom suite with king bed well in advance of arrival and received confirmation. Upon arrival, was given a studio with a queen bed. Went back to front desk, stated this is not what I reserved and was told my only option was a studio with a king. I asked if the property actually had one bedroom suites and was told they are all sold out. When I stated that since I am getting a lesser room than I paid for, I was told that it is the same rate (it is not) and that I should be happy because I got a really great rate. Staybridge should have alerted me in advance that they were sold out versus confirming that I was getting what I paid for, not charged for me for a room I did not receive, and if there was some sort of last minute screw up, they should have at least charged me something less since I got a studio. Since this was a complete rip-off  I won't ever book a Staybridge property again, but if you choose to do so, call ahead regardless of your email confirmation to ensure that you actually receive the room you paid for versus the bait and switch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r587054363-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>587054363</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>My Place</t>
+  </si>
+  <si>
+    <t>We had a suite, time we walked in the room, I think I heard sweet humming. The staff was so polite and friendly. Everything we needed to do was in walking distance. We came down for a concert, and the venue was only 5 minutes away. So many places to eat and shop. The shower was awesome and the separate bedroom made it even better.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>We had a suite, time we walked in the room, I think I heard sweet humming. The staff was so polite and friendly. Everything we needed to do was in walking distance. We came down for a concert, and the venue was only 5 minutes away. So many places to eat and shop. The shower was awesome and the separate bedroom made it even better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r573595803-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>573595803</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>My nice stay starts in the parking lot</t>
+  </si>
+  <si>
+    <t>I often park my cars in sports at the end of row. To protect it from car doors and people parking closely to it.  I always back in when parking. I often drive a large pick-up truck and so I am not backing the bumper over a sidewalk I try to park in spots lined by fences, curbs or landscaping. I share all of this to say hotel bushes and trees are often overgrown and scratch the sides, back and sometimes even the roof of my truck.  This hotel keeps their landscape well trimmed and I don’t have to worry about the bushes and trees scratching my car. I very much appreciate the effort this property has taken to keep the bushes and tree limbs form encroaching into the parking area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>I often park my cars in sports at the end of row. To protect it from car doors and people parking closely to it.  I always back in when parking. I often drive a large pick-up truck and so I am not backing the bumper over a sidewalk I try to park in spots lined by fences, curbs or landscaping. I share all of this to say hotel bushes and trees are often overgrown and scratch the sides, back and sometimes even the roof of my truck.  This hotel keeps their landscape well trimmed and I don’t have to worry about the bushes and trees scratching my car. I very much appreciate the effort this property has taken to keep the bushes and tree limbs form encroaching into the parking area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r555214919-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>555214919</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent place five stars!</t>
+  </si>
+  <si>
+    <t>Friendly staff, great breakfast, comfortable rooms, perfect location, five stars. Front desk is always ready to help you. The pool is nice, barbecue area is nice, people are nice, location is perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Friendly staff, great breakfast, comfortable rooms, perfect location, five stars. Front desk is always ready to help you. The pool is nice, barbecue area is nice, people are nice, location is perfect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r543655417-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>543655417</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Loved Staying Here!</t>
+  </si>
+  <si>
+    <t>We had a party of 4 adults and 1 toddler traveling for a 60th wedding anniversary, and needed to find a more spacious place to stay... after much research ranging from AirBnb options, to other hotels, we decided this was the right place for us.  Pricing wasn't the cheapest option, as we needed a larger unit, but looking back now, it was worth every penny.Very close to shops and restaurants, right next to an AMC theatre!  Our unit had a kitchen with range, dishwasher, sink, fridge, and additional kitchen amenities.  The bathrooms were great, along with the bedrooms.  The living room section was small, but was still comfortable.  We needed a crib for my daughter, and when we checked in, the crib was already set up and in place.  First time we didn't have to actually set it up ourselves, so I appreciated it greatly!  Breakfast was included every morning, and on M-W, dinner is also provided.  We arrived on a Wednesday evening, and was able to take advantage of the dinner that evening.  The kitchen fridge of your unit will have a calendar of menu items and what is being served that month.  I loved that!!!Overall, I really enjoyed staying here.  I have stayed at other hotels nearby, and this one far exceeds them!  Looking forward to another stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>We had a party of 4 adults and 1 toddler traveling for a 60th wedding anniversary, and needed to find a more spacious place to stay... after much research ranging from AirBnb options, to other hotels, we decided this was the right place for us.  Pricing wasn't the cheapest option, as we needed a larger unit, but looking back now, it was worth every penny.Very close to shops and restaurants, right next to an AMC theatre!  Our unit had a kitchen with range, dishwasher, sink, fridge, and additional kitchen amenities.  The bathrooms were great, along with the bedrooms.  The living room section was small, but was still comfortable.  We needed a crib for my daughter, and when we checked in, the crib was already set up and in place.  First time we didn't have to actually set it up ourselves, so I appreciated it greatly!  Breakfast was included every morning, and on M-W, dinner is also provided.  We arrived on a Wednesday evening, and was able to take advantage of the dinner that evening.  The kitchen fridge of your unit will have a calendar of menu items and what is being served that month.  I loved that!!!Overall, I really enjoyed staying here.  I have stayed at other hotels nearby, and this one far exceeds them!  Looking forward to another stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r537901773-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>537901773</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Why stay anywhere else!</t>
+  </si>
+  <si>
+    <t>We moved into the Staybridge for just under two weeks after we sold our home and were moving out of the country for a job.  Staybridge is amazing.  wonderful breakfast every morning and on Monday, Tuesday and Wednesday they have dinner.  Dinner and happy hour were good and it was nice to be able to not have to worry about meals a few night a week while staying at a hotel.  The staff are friendly and helpful and since we were supposed to be leaving about the time Hurricane Harvey hit, they were very flexible with out dates of travel.  Allowing us to book extra days or leave at a moments notice.  They have a nice pool and the laundry facilities are also great, multiple washers and dryers all nice large capacity and free.  We stayed in a 1 bedroom suite with a kitchen and we loved being able to have a fridge with some of our own food if we wanted it.  They also have a shuttle and several restaurants in the close vicinity. Excellent clean facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>We moved into the Staybridge for just under two weeks after we sold our home and were moving out of the country for a job.  Staybridge is amazing.  wonderful breakfast every morning and on Monday, Tuesday and Wednesday they have dinner.  Dinner and happy hour were good and it was nice to be able to not have to worry about meals a few night a week while staying at a hotel.  The staff are friendly and helpful and since we were supposed to be leaving about the time Hurricane Harvey hit, they were very flexible with out dates of travel.  Allowing us to book extra days or leave at a moments notice.  They have a nice pool and the laundry facilities are also great, multiple washers and dryers all nice large capacity and free.  We stayed in a 1 bedroom suite with a kitchen and we loved being able to have a fridge with some of our own food if we wanted it.  They also have a shuttle and several restaurants in the close vicinity. Excellent clean facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r481542959-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>481542959</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel in a recent business trip. I can see why the company selects it for those that have to stay for a few weeks at a time  Nice kitchenette which would be really convenient if I was staying longer. Room was clean and spacious. I was on the first floor near the stairs and I would never do that again.  Very noisy all night.  Was rudely woken up around midnight each night.  People slamming doors.  Very rudeI was not impressed with the air conditioner made the room smell musty. The fitness center was nice but the TV didn't work or the clock. Free continental breakfast did the trickWould stay again but never on the first floorMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel in a recent business trip. I can see why the company selects it for those that have to stay for a few weeks at a time  Nice kitchenette which would be really convenient if I was staying longer. Room was clean and spacious. I was on the first floor near the stairs and I would never do that again.  Very noisy all night.  Was rudely woken up around midnight each night.  People slamming doors.  Very rudeI was not impressed with the air conditioner made the room smell musty. The fitness center was nice but the TV didn't work or the clock. Free continental breakfast did the trickWould stay again but never on the first floorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r468297435-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>468297435</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Nice place for Stay - Little pricy</t>
+  </si>
+  <si>
+    <t>Hi there my dear traveler,Here are the "Good", "Not So Good" and "Bad" about this property:(A). GOOD- In close vicinity to a lot of good eatouts and buisness locaions at Sugarland- Good ambiance, room style, with gym, pool- Complimentary evening snacks and drinks on mon, tue, wed- Good staff- In room kitchen with fridge, microwave,dishwasher(B). NOT SO GOOD- Pool not so big- Little overpriced stay- In house lunch and dinner not served. To be ordered from other outlets(C). BAD- nothingMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Hi there my dear traveler,Here are the "Good", "Not So Good" and "Bad" about this property:(A). GOOD- In close vicinity to a lot of good eatouts and buisness locaions at Sugarland- Good ambiance, room style, with gym, pool- Complimentary evening snacks and drinks on mon, tue, wed- Good staff- In room kitchen with fridge, microwave,dishwasher(B). NOT SO GOOD- Pool not so big- Little overpriced stay- In house lunch and dinner not served. To be ordered from other outlets(C). BAD- nothingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r454070091-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>454070091</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Disappointed and grossed out ...</t>
+  </si>
+  <si>
+    <t>I am not someone who is fancy or in need of much We were really excited to be In a nice clean hotel for our honeymoon, and we got there and everything seemed good. We got settled in and left came back and first thing we saw was chocolate with Carmel  all over the floors downstairs by the elevator which stayed there until we left. Staff did seem friendly although as we were cleaning our room to leave and pushed back the curtains to open up windows, we found a used condom on the floor we were compelty im shock and grossed out to say the least and felt so dirty after that feeling like the what else did the housekeepers not clean or miss from the last stay ! I have always enjoyed stay ridge hotels but due to this I am unsure if I want to stay again. When we told the receptionist / staff downstairs she giggled and then said sorry. It jjst did not seem to do what happened justice.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>I am not someone who is fancy or in need of much We were really excited to be In a nice clean hotel for our honeymoon, and we got there and everything seemed good. We got settled in and left came back and first thing we saw was chocolate with Carmel  all over the floors downstairs by the elevator which stayed there until we left. Staff did seem friendly although as we were cleaning our room to leave and pushed back the curtains to open up windows, we found a used condom on the floor we were compelty im shock and grossed out to say the least and felt so dirty after that feeling like the what else did the housekeepers not clean or miss from the last stay ! I have always enjoyed stay ridge hotels but due to this I am unsure if I want to stay again. When we told the receptionist / staff downstairs she giggled and then said sorry. It jjst did not seem to do what happened justice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r420158715-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>420158715</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Nice location.  Near restaurants and the regional airport.  Cozy beds. Nice staff. Rooms have a really nice kitchen in them. Great for families. One thing to be aware of, they are suites with sitting area and kitchen but it all in one large room, no door to separate living area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Nice location.  Near restaurants and the regional airport.  Cozy beds. Nice staff. Rooms have a really nice kitchen in them. Great for families. One thing to be aware of, they are suites with sitting area and kitchen but it all in one large room, no door to separate living area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r416288671-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>416288671</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Great place, good price</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay from Thursday thru Sunday of Labor Day weekend.  Close to shopping and resteruants, large spacious rooms with small full kitchen including burners, full refrigerator, dish washer and microwave, standard free breakfast and more.  Laundry room was next to my room and it was still very quiet although I did hear a little swimming pool noise at times.  Laundry is great and free so you don't have to worry about quarters.  Staff was polite, friendly and helpful.  Will find was very fast.  Spent the days at Brazos Bend State Park and not a bad drive back and forth.  Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay from Thursday thru Sunday of Labor Day weekend.  Close to shopping and resteruants, large spacious rooms with small full kitchen including burners, full refrigerator, dish washer and microwave, standard free breakfast and more.  Laundry room was next to my room and it was still very quiet although I did hear a little swimming pool noise at times.  Laundry is great and free so you don't have to worry about quarters.  Staff was polite, friendly and helpful.  Will find was very fast.  Spent the days at Brazos Bend State Park and not a bad drive back and forth.  Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r361638301-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>361638301</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Reasonable place, good for families</t>
+  </si>
+  <si>
+    <t>Not all the rooms are quite, odd numbered rooms get road noise from the freeway.  While staff in friendly you may need to remind then to replace thing like tissues.  Reasonable breakfast, tasty treats Monday - Wed. Though the cheese sauce in a canned stuff.  Not a bad effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Not all the rooms are quite, odd numbered rooms get road noise from the freeway.  While staff in friendly you may need to remind then to replace thing like tissues.  Reasonable breakfast, tasty treats Monday - Wed. Though the cheese sauce in a canned stuff.  Not a bad effort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r351380785-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>351380785</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Very Good Hotel</t>
+  </si>
+  <si>
+    <t>The one bedroom King suite is spacious and perfect if you are staying for multiple nights.   The location is excellent with several restaurants and a movie theater nearby.  Breakfast is standard and good.  Wifi is fast!  I would stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>The one bedroom King suite is spacious and perfect if you are staying for multiple nights.   The location is excellent with several restaurants and a movie theater nearby.  Breakfast is standard and good.  Wifi is fast!  I would stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r348551763-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>348551763</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>I have stayed here twice and both times have been a great experience.  Hotel was clean, service was great, and the breakfast was filling.  I have stayed in multiple hotels in the area and would highly suggest Staybridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here twice and both times have been a great experience.  Hotel was clean, service was great, and the breakfast was filling.  I have stayed in multiple hotels in the area and would highly suggest Staybridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r347923877-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>347923877</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Amazing Stay!!</t>
+  </si>
+  <si>
+    <t>I would stay here again.  The staff is very friendly.  They took care of my needs for my kids and the movie theater was awesome, kids loved it. The hot breakfast was great especially the variety of fruits and muffins.  The pool was clean also.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>I would stay here again.  The staff is very friendly.  They took care of my needs for my kids and the movie theater was awesome, kids loved it. The hot breakfast was great especially the variety of fruits and muffins.  The pool was clean also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r329179068-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>329179068</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>Breakfast was above average for Staybridge</t>
+  </si>
+  <si>
+    <t>Our stop for the night on the way home and it did not disappoint. Staff was friendly, good laundry room and large Fitness Center with working equipment, hooks for jackets, sanitizing wipes, only comment I have negative was the clock had not been changed when the time changed. Breakfast was above average and included croissants, V8 juice, good scrambled eggs and potatoes, grapefruit and good biscuits.  There is a large shopping area and theatre within walking distance.  My usual big gripe about Staybridges also applies here/ no door on bathroom dressing area and very small sink area and the other is lack of covered area to load and unload.  Our sink area needs better lighting and a fresh painting with a lighter color in my opinion. Social time was laid out nicely and was very adequate. Internet was ok too. We look forward to our return.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Our stop for the night on the way home and it did not disappoint. Staff was friendly, good laundry room and large Fitness Center with working equipment, hooks for jackets, sanitizing wipes, only comment I have negative was the clock had not been changed when the time changed. Breakfast was above average and included croissants, V8 juice, good scrambled eggs and potatoes, grapefruit and good biscuits.  There is a large shopping area and theatre within walking distance.  My usual big gripe about Staybridges also applies here/ no door on bathroom dressing area and very small sink area and the other is lack of covered area to load and unload.  Our sink area needs better lighting and a fresh painting with a lighter color in my opinion. Social time was laid out nicely and was very adequate. Internet was ok too. We look forward to our return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r323461154-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>323461154</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Still good, but standards have slipped</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times, and really enjoyed it. It's in a convenient location, right next to US-59 and close to Sugarland and the beltway. I've rated it very highly before, and it's still good, but I felt that standards had slipped slightly. 
+Staff seemed less engaged, and there was little effort to go beyond the initial greeting. Previously, management had been present at the evening social, which takes place on Tuesday through Thursday, but that didn't happen when I was there this time.
+The food at the social is reasonable, it's free, and it negates the need to go out for dinner. However, the white wine being served this time was sweet, which probably explains why it lasted so long!
+I was upgraded, and the room was very nice, but the air conditioning in the bedroom sounded like a jet engine taking off every time it came on. I had to turn up the TV every time it happened. 
+The gym really could do with a refresh. It's pretty limited, with two treadmills, a stepper, some free weights and one multi-station gym system. None of the equipment has personal video, and the single TV on the wall is difficult to see and hear. 
+I'd rate it as 3.5 and good if I could, but that's not an option, and I'd still recommend it over other hotels in the area for price and quality. It was just slightly...I've stayed at this hotel several times, and really enjoyed it. It's in a convenient location, right next to US-59 and close to Sugarland and the beltway. I've rated it very highly before, and it's still good, but I felt that standards had slipped slightly. Staff seemed less engaged, and there was little effort to go beyond the initial greeting. Previously, management had been present at the evening social, which takes place on Tuesday through Thursday, but that didn't happen when I was there this time.The food at the social is reasonable, it's free, and it negates the need to go out for dinner. However, the white wine being served this time was sweet, which probably explains why it lasted so long!I was upgraded, and the room was very nice, but the air conditioning in the bedroom sounded like a jet engine taking off every time it came on. I had to turn up the TV every time it happened. The gym really could do with a refresh. It's pretty limited, with two treadmills, a stepper, some free weights and one multi-station gym system. None of the equipment has personal video, and the single TV on the wall is difficult to see and hear. I'd rate it as 3.5 and good if I could, but that's not an option, and I'd still recommend it over other hotels in the area for price and quality. It was just slightly disappointing on this occasion.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel several times, and really enjoyed it. It's in a convenient location, right next to US-59 and close to Sugarland and the beltway. I've rated it very highly before, and it's still good, but I felt that standards had slipped slightly. 
+Staff seemed less engaged, and there was little effort to go beyond the initial greeting. Previously, management had been present at the evening social, which takes place on Tuesday through Thursday, but that didn't happen when I was there this time.
+The food at the social is reasonable, it's free, and it negates the need to go out for dinner. However, the white wine being served this time was sweet, which probably explains why it lasted so long!
+I was upgraded, and the room was very nice, but the air conditioning in the bedroom sounded like a jet engine taking off every time it came on. I had to turn up the TV every time it happened. 
+The gym really could do with a refresh. It's pretty limited, with two treadmills, a stepper, some free weights and one multi-station gym system. None of the equipment has personal video, and the single TV on the wall is difficult to see and hear. 
+I'd rate it as 3.5 and good if I could, but that's not an option, and I'd still recommend it over other hotels in the area for price and quality. It was just slightly...I've stayed at this hotel several times, and really enjoyed it. It's in a convenient location, right next to US-59 and close to Sugarland and the beltway. I've rated it very highly before, and it's still good, but I felt that standards had slipped slightly. Staff seemed less engaged, and there was little effort to go beyond the initial greeting. Previously, management had been present at the evening social, which takes place on Tuesday through Thursday, but that didn't happen when I was there this time.The food at the social is reasonable, it's free, and it negates the need to go out for dinner. However, the white wine being served this time was sweet, which probably explains why it lasted so long!I was upgraded, and the room was very nice, but the air conditioning in the bedroom sounded like a jet engine taking off every time it came on. I had to turn up the TV every time it happened. The gym really could do with a refresh. It's pretty limited, with two treadmills, a stepper, some free weights and one multi-station gym system. None of the equipment has personal video, and the single TV on the wall is difficult to see and hear. I'd rate it as 3.5 and good if I could, but that's not an option, and I'd still recommend it over other hotels in the area for price and quality. It was just slightly disappointing on this occasion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r320270815-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>320270815</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Best Staybridge Suite Hotel we've seen in a long time</t>
+  </si>
+  <si>
+    <t>We've been in many hotels of this brand and this particular one was one of the best.This is what we liked:- well maintained- nice contemporary design of the suites- comfortable bed- well equipped kitchenette- windows can be opened- Wifi worked well- relatively good gym- very quiet- lots of green behind the hotel, no buildings or streets to be seen- a commercial area with many shops and restaurants closebyOn the downside: the breakfast area is very small and it was often hard to find a table</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r289208877-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>289208877</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>First but not the last time</t>
+  </si>
+  <si>
+    <t>Booked this place as it was close to my customer and they recommended it.Staff are friendly and very attentive, nothing was too much trouble. Rooms are spacious, clean and well equipped. Bed very comfy. Wi-Fi easy to use and effective.Breakfast is more than adequate. Lots of shopping and restaurants within walking distance. Highly recoomended</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r283369610-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>283369610</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahhhhh comfort! </t>
+  </si>
+  <si>
+    <t>My cousin and I stayed at starbridge for 4 days. The staff was friendly and accomodating. I had to switch rooms because my bed was to soft for my bad back. Vicky was an angel. She put us in a better room with a great bed and view of the pool. Whoohooo, Way to go Vicky! The breakfasts were tasty and the cinema room was amazing along with the gym and pool. I've never used this hotel chain before, but will definitely come back when visiting the great state of Texas. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>My cousin and I stayed at starbridge for 4 days. The staff was friendly and accomodating. I had to switch rooms because my bed was to soft for my bad back. Vicky was an angel. She put us in a better room with a great bed and view of the pool. Whoohooo, Way to go Vicky! The breakfasts were tasty and the cinema room was amazing along with the gym and pool. I've never used this hotel chain before, but will definitely come back when visiting the great state of Texas. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r277528284-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>277528284</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Staybridge Suites in Stafford - HUGE disappointment</t>
+  </si>
+  <si>
+    <t>My family has long been a very loyal customer of the Staybridge Suites in Fayetteville, AR, where my grandparents live.  Our family is spread out all over the country and we gather together for the holidays, and a few years ago we discovered the Staybridge in the area and have been so impressed with it that our entire extended family now stays there whenever we visit.  So, when my cousin got married in Sugarland this past week, it seemed natural for us to look for a Staybridge Suites in the area to stay in for that as well.  We assumed the experience would be universally excellent, but were greatly disappointed when we actually got there.   
+We booked this room months in advance, to be sure we had one of the two bedroom suites that fit our family perfectly.  The reservation was made for a room with a King Bed and two full beds with a pullout couch in the living room.  However, when we showed up, there was no king bed.  There was a much smaller bed in it’s place, and there was no way this was going to be comfortable for us.  So, we went to the front desk, where we were informed that we were given the handicapped room, and that they couldn’t move us to a different two bedroom that night, so they would keep us in there and give us a second King suite for the...My family has long been a very loyal customer of the Staybridge Suites in Fayetteville, AR, where my grandparents live.  Our family is spread out all over the country and we gather together for the holidays, and a few years ago we discovered the Staybridge in the area and have been so impressed with it that our entire extended family now stays there whenever we visit.  So, when my cousin got married in Sugarland this past week, it seemed natural for us to look for a Staybridge Suites in the area to stay in for that as well.  We assumed the experience would be universally excellent, but were greatly disappointed when we actually got there.   We booked this room months in advance, to be sure we had one of the two bedroom suites that fit our family perfectly.  The reservation was made for a room with a King Bed and two full beds with a pullout couch in the living room.  However, when we showed up, there was no king bed.  There was a much smaller bed in it’s place, and there was no way this was going to be comfortable for us.  So, we went to the front desk, where we were informed that we were given the handicapped room, and that they couldn’t move us to a different two bedroom that night, so they would keep us in there and give us a second King suite for the night.  The next morning, they promised to have maintenance dismantle the smaller bed and replace it with a King so we could all stay together.  Despite the inconvenience of being separated by four floors and having to unpack everything for one night just to pack it back up in the morning, we agreed, as we really had no other alternative.  The next morning, we packed our stuff up and brought it back to the 2 bedroom suite that they were supposed to fix for us.  We let them know when we left so they could go in and set up the King bed.  A few minutes later we received a phone call telling us that they couldn’t set up the King bed in that room, and that our choices would be to sleep on the King mattress on the floor, or for EVERYONE to pack everything up AGAIN and move to a 2 bedroom suite on the 4th floor.  When we called back, I told them that we would take the other room, as we had no interest in sleeping on a mattress on the floor, but that I expected some sort of discount for the inconvenience of having to move everything AGAIN.  She called me back and told me they could give me a $54 discount on our reservation, which totaled around $1000 for our stay.  I was underwhelmed, to say the least, but we agreed and moved.  When we returned to the hotel and moved into the 4th floor 2 bedroom suite, the first thing that struck us walking in the door was the stench.  It smelled like dirty laundry mixed with a wet dog.  It was horrid.  But we didn’t have any other choices, so we brought our stuff in and acclimated to the smell.   Before we left, I turned the A/C on in the King bedroom to 69 degrees, hoping it would cool down by the time we got back.  However, when we got back several hours later, the room was still 72 degrees.  That was the coolest it would get until our final night there.  That night, I asked my fiancé to let the front desk know that there appeared to be an issue with the A/C when he went downstairs to see about getting some ice from the drink machine.  He did, and we never heard another word about it.  The next day, the temperature was 73 degrees when we woke up, and it was getting muggier in the room (which was made even more wonderful by the lingering smell that struck us every single time we came into the room).  By that night, we were getting concerned as it hit 74 degrees and my father decided to talk to the front desk again.  In the morning, he told them about the issue, and by that point, the thermostat was reading 77 degrees.  They finally appeared to fix it while we were gone that day, so we at least got to spend our final night in a reasonable temperature, though the smell never did go away.  I recorded on my phone some of the other issues we encountered in this room, including one bedroom door that would get stuck to a point that it would easily be a safety hazard if anyone had to evacuate that room in a hurry, as my mother could barely even get it open without someone else’s help.  On top of that, the doors to both bedrooms were VERY loud and squeaky.  You couldn’t enter or exit either room without waking up everyone else in both rooms.  And in the bedroom with the two beds, the curtains would not close completely, allowing a large amount of light into the room, making it hard to sleep.  The water pressure in that room’s sink was so poor that my father just started using the kitchen sink instead.  I also had to bring a remote control to the front desk because the batteries weren’t working (do your housekeepers not test this when they come in?), and I made a record of the furnishings, just in case anyone were to try and charge us for any kind of damage, since the furnishings (and the refrigerator) in these rooms was very worn and not in the kind of shape I’m used to seeing in a hotel like this.  I also took a photo of the pillows from this hotel, which I honestly couldn’t even believe they use.  They’re HALF the size of a normal pillow.  Ironically, there’s a sign on the beds stating that “You’re only as comfortable as your pillows”.  This left me wondering what the thought process was behind depriving people of normal sized pillows and giving them something the size of a throw-pillow instead.  It’s strange and uncomfortable.  I tried calling the front desk to find out if they had any normal pillows, and they informed me they didn’t, so I had to request several more of these weird half pillows in order to even try and get comfortable.  When I received them, I was given several pillowcases to go with them, each of them torn and tattered like an old rag. If you understand the importance of a good pillow, then why on earth don’t you have any? I will give credit where it’s due.  They have free beer, wine, and appetizers during the week that were a nice touch, and the breakfast each morning was excellent. So, you really should commend whoever is running the kitchen there, because they did an excellent job.  But, I’m not sure a good breakfast would be enough to get me to go back to this hotel again.  If I were managing this property and I was aware of a family having an experience like this, I certainly would have reached out to try to make some sort of apology for all of the issues that they had encountered and to try and make it up to them.  We never had anyone do so, and short of me having to specifically request a refund, where they seemed reluctant to even offer us a whopping 5% back after having to move twice due to their errors, nobody ever followed up with us about our troubles or tried to make any effort to apologize for all of these inconveniences, let alone make it up to us or do something to make us want to return to this hotel in the future.  This is unfortunate, because my opinion of the Staybridge brand was so high before staying at this hotel, and I’m incredibly disappointed and will no longer trust the brand to live up to the standards set by the Fayetteville location in other areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>My family has long been a very loyal customer of the Staybridge Suites in Fayetteville, AR, where my grandparents live.  Our family is spread out all over the country and we gather together for the holidays, and a few years ago we discovered the Staybridge in the area and have been so impressed with it that our entire extended family now stays there whenever we visit.  So, when my cousin got married in Sugarland this past week, it seemed natural for us to look for a Staybridge Suites in the area to stay in for that as well.  We assumed the experience would be universally excellent, but were greatly disappointed when we actually got there.   
+We booked this room months in advance, to be sure we had one of the two bedroom suites that fit our family perfectly.  The reservation was made for a room with a King Bed and two full beds with a pullout couch in the living room.  However, when we showed up, there was no king bed.  There was a much smaller bed in it’s place, and there was no way this was going to be comfortable for us.  So, we went to the front desk, where we were informed that we were given the handicapped room, and that they couldn’t move us to a different two bedroom that night, so they would keep us in there and give us a second King suite for the...My family has long been a very loyal customer of the Staybridge Suites in Fayetteville, AR, where my grandparents live.  Our family is spread out all over the country and we gather together for the holidays, and a few years ago we discovered the Staybridge in the area and have been so impressed with it that our entire extended family now stays there whenever we visit.  So, when my cousin got married in Sugarland this past week, it seemed natural for us to look for a Staybridge Suites in the area to stay in for that as well.  We assumed the experience would be universally excellent, but were greatly disappointed when we actually got there.   We booked this room months in advance, to be sure we had one of the two bedroom suites that fit our family perfectly.  The reservation was made for a room with a King Bed and two full beds with a pullout couch in the living room.  However, when we showed up, there was no king bed.  There was a much smaller bed in it’s place, and there was no way this was going to be comfortable for us.  So, we went to the front desk, where we were informed that we were given the handicapped room, and that they couldn’t move us to a different two bedroom that night, so they would keep us in there and give us a second King suite for the night.  The next morning, they promised to have maintenance dismantle the smaller bed and replace it with a King so we could all stay together.  Despite the inconvenience of being separated by four floors and having to unpack everything for one night just to pack it back up in the morning, we agreed, as we really had no other alternative.  The next morning, we packed our stuff up and brought it back to the 2 bedroom suite that they were supposed to fix for us.  We let them know when we left so they could go in and set up the King bed.  A few minutes later we received a phone call telling us that they couldn’t set up the King bed in that room, and that our choices would be to sleep on the King mattress on the floor, or for EVERYONE to pack everything up AGAIN and move to a 2 bedroom suite on the 4th floor.  When we called back, I told them that we would take the other room, as we had no interest in sleeping on a mattress on the floor, but that I expected some sort of discount for the inconvenience of having to move everything AGAIN.  She called me back and told me they could give me a $54 discount on our reservation, which totaled around $1000 for our stay.  I was underwhelmed, to say the least, but we agreed and moved.  When we returned to the hotel and moved into the 4th floor 2 bedroom suite, the first thing that struck us walking in the door was the stench.  It smelled like dirty laundry mixed with a wet dog.  It was horrid.  But we didn’t have any other choices, so we brought our stuff in and acclimated to the smell.   Before we left, I turned the A/C on in the King bedroom to 69 degrees, hoping it would cool down by the time we got back.  However, when we got back several hours later, the room was still 72 degrees.  That was the coolest it would get until our final night there.  That night, I asked my fiancé to let the front desk know that there appeared to be an issue with the A/C when he went downstairs to see about getting some ice from the drink machine.  He did, and we never heard another word about it.  The next day, the temperature was 73 degrees when we woke up, and it was getting muggier in the room (which was made even more wonderful by the lingering smell that struck us every single time we came into the room).  By that night, we were getting concerned as it hit 74 degrees and my father decided to talk to the front desk again.  In the morning, he told them about the issue, and by that point, the thermostat was reading 77 degrees.  They finally appeared to fix it while we were gone that day, so we at least got to spend our final night in a reasonable temperature, though the smell never did go away.  I recorded on my phone some of the other issues we encountered in this room, including one bedroom door that would get stuck to a point that it would easily be a safety hazard if anyone had to evacuate that room in a hurry, as my mother could barely even get it open without someone else’s help.  On top of that, the doors to both bedrooms were VERY loud and squeaky.  You couldn’t enter or exit either room without waking up everyone else in both rooms.  And in the bedroom with the two beds, the curtains would not close completely, allowing a large amount of light into the room, making it hard to sleep.  The water pressure in that room’s sink was so poor that my father just started using the kitchen sink instead.  I also had to bring a remote control to the front desk because the batteries weren’t working (do your housekeepers not test this when they come in?), and I made a record of the furnishings, just in case anyone were to try and charge us for any kind of damage, since the furnishings (and the refrigerator) in these rooms was very worn and not in the kind of shape I’m used to seeing in a hotel like this.  I also took a photo of the pillows from this hotel, which I honestly couldn’t even believe they use.  They’re HALF the size of a normal pillow.  Ironically, there’s a sign on the beds stating that “You’re only as comfortable as your pillows”.  This left me wondering what the thought process was behind depriving people of normal sized pillows and giving them something the size of a throw-pillow instead.  It’s strange and uncomfortable.  I tried calling the front desk to find out if they had any normal pillows, and they informed me they didn’t, so I had to request several more of these weird half pillows in order to even try and get comfortable.  When I received them, I was given several pillowcases to go with them, each of them torn and tattered like an old rag. If you understand the importance of a good pillow, then why on earth don’t you have any? I will give credit where it’s due.  They have free beer, wine, and appetizers during the week that were a nice touch, and the breakfast each morning was excellent. So, you really should commend whoever is running the kitchen there, because they did an excellent job.  But, I’m not sure a good breakfast would be enough to get me to go back to this hotel again.  If I were managing this property and I was aware of a family having an experience like this, I certainly would have reached out to try to make some sort of apology for all of the issues that they had encountered and to try and make it up to them.  We never had anyone do so, and short of me having to specifically request a refund, where they seemed reluctant to even offer us a whopping 5% back after having to move twice due to their errors, nobody ever followed up with us about our troubles or tried to make any effort to apologize for all of these inconveniences, let alone make it up to us or do something to make us want to return to this hotel in the future.  This is unfortunate, because my opinion of the Staybridge brand was so high before staying at this hotel, and I’m incredibly disappointed and will no longer trust the brand to live up to the standards set by the Fayetteville location in other areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r253353792-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>253353792</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Wonderful weekend stay!</t>
+  </si>
+  <si>
+    <t>Great hotel! Was in town for the weekend for a dance competition and enjoyed every minute of our stay. The room was clean and smelled pleasant. The breakfast was amazing and the beds and pillows were so comfortable.  Did not have one negative thing to say. My husband could not believe how reasonably priced it was either. You definitely get more than you pay for. We will be coming back!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel! Was in town for the weekend for a dance competition and enjoyed every minute of our stay. The room was clean and smelled pleasant. The breakfast was amazing and the beds and pillows were so comfortable.  Did not have one negative thing to say. My husband could not believe how reasonably priced it was either. You definitely get more than you pay for. We will be coming back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r251419997-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>251419997</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Excellent place</t>
+  </si>
+  <si>
+    <t>I lived in Staybridge Suites Sigar Land/Stafford for 2 weeks in January 2015 while travelling to US for a business trip.
+The price per night increased comparing to the prices in summer 2014. But it was still ok.
+The hotel is really-really nice. I picked it not just because it is close to my office but because lots of my co-workes advised to stay there. And i never regret.
+The hotel is really close to a shop area (Fountain lake) with some restaurants, cafes, shops and a cinema. Also there is a small park nearby with a walking trail (where i used to go for my running and exercising).
+I really enjoyed my room. It was clean and spacious. Everyday housekeeping, including weekends.
+Nice gym room,. Free laundry room (but detergents etc are of course extra charge and are available at front desk)
+I like breakfasts there. They included a variety of fruits, biscuits, oatmeal, cereals, eggs, bacon. 
+Try Texas-shape waffles. They are delicious with a strawberry jam.
+From Tuesday to Thursday they serve a social evening dinner with a choose of some wines and beers.
+Hotel staff is very nice and friendly. I kept my luggage for 2 days at the front desk even after check out date.
+So, i was pleased to stay in Staybridge Suites. Next time i'll book it again.
+Couple of thing to mention though:
+fridge in the room is a little but noisy. So...I lived in Staybridge Suites Sigar Land/Stafford for 2 weeks in January 2015 while travelling to US for a business trip.The price per night increased comparing to the prices in summer 2014. But it was still ok.The hotel is really-really nice. I picked it not just because it is close to my office but because lots of my co-workes advised to stay there. And i never regret.The hotel is really close to a shop area (Fountain lake) with some restaurants, cafes, shops and a cinema. Also there is a small park nearby with a walking trail (where i used to go for my running and exercising).I really enjoyed my room. It was clean and spacious. Everyday housekeeping, including weekends.Nice gym room,. Free laundry room (but detergents etc are of course extra charge and are available at front desk)I like breakfasts there. They included a variety of fruits, biscuits, oatmeal, cereals, eggs, bacon. Try Texas-shape waffles. They are delicious with a strawberry jam.From Tuesday to Thursday they serve a social evening dinner with a choose of some wines and beers.Hotel staff is very nice and friendly. I kept my luggage for 2 days at the front desk even after check out date.So, i was pleased to stay in Staybridge Suites. Next time i'll book it again.Couple of thing to mention though:fridge in the room is a little but noisy. So it made me wake up several times at night.Ventilation in the bathroom is also noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>I lived in Staybridge Suites Sigar Land/Stafford for 2 weeks in January 2015 while travelling to US for a business trip.
+The price per night increased comparing to the prices in summer 2014. But it was still ok.
+The hotel is really-really nice. I picked it not just because it is close to my office but because lots of my co-workes advised to stay there. And i never regret.
+The hotel is really close to a shop area (Fountain lake) with some restaurants, cafes, shops and a cinema. Also there is a small park nearby with a walking trail (where i used to go for my running and exercising).
+I really enjoyed my room. It was clean and spacious. Everyday housekeeping, including weekends.
+Nice gym room,. Free laundry room (but detergents etc are of course extra charge and are available at front desk)
+I like breakfasts there. They included a variety of fruits, biscuits, oatmeal, cereals, eggs, bacon. 
+Try Texas-shape waffles. They are delicious with a strawberry jam.
+From Tuesday to Thursday they serve a social evening dinner with a choose of some wines and beers.
+Hotel staff is very nice and friendly. I kept my luggage for 2 days at the front desk even after check out date.
+So, i was pleased to stay in Staybridge Suites. Next time i'll book it again.
+Couple of thing to mention though:
+fridge in the room is a little but noisy. So...I lived in Staybridge Suites Sigar Land/Stafford for 2 weeks in January 2015 while travelling to US for a business trip.The price per night increased comparing to the prices in summer 2014. But it was still ok.The hotel is really-really nice. I picked it not just because it is close to my office but because lots of my co-workes advised to stay there. And i never regret.The hotel is really close to a shop area (Fountain lake) with some restaurants, cafes, shops and a cinema. Also there is a small park nearby with a walking trail (where i used to go for my running and exercising).I really enjoyed my room. It was clean and spacious. Everyday housekeeping, including weekends.Nice gym room,. Free laundry room (but detergents etc are of course extra charge and are available at front desk)I like breakfasts there. They included a variety of fruits, biscuits, oatmeal, cereals, eggs, bacon. Try Texas-shape waffles. They are delicious with a strawberry jam.From Tuesday to Thursday they serve a social evening dinner with a choose of some wines and beers.Hotel staff is very nice and friendly. I kept my luggage for 2 days at the front desk even after check out date.So, i was pleased to stay in Staybridge Suites. Next time i'll book it again.Couple of thing to mention though:fridge in the room is a little but noisy. So it made me wake up several times at night.Ventilation in the bathroom is also noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r248717773-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>248717773</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, friendly staff. Breakfast had lots of fresh fruits. Small buffet dinner Tuesday through Thursday was very tasty. I would definitely recommend staying at this hotel, when visiting the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, friendly staff. Breakfast had lots of fresh fruits. Small buffet dinner Tuesday through Thursday was very tasty. I would definitely recommend staying at this hotel, when visiting the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r236492641-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>236492641</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>It was a great stay for a short business trip. Room was great. Staff were friendly. Though the internet was down during first night, it was quickly recovered the next morning. The hotel management was nice to even to issue a letter to explain the issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>It was a great stay for a short business trip. Room was great. Staff were friendly. Though the internet was down during first night, it was quickly recovered the next morning. The hotel management was nice to even to issue a letter to explain the issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r235566181-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>235566181</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel and a Wonderful Staff!</t>
+  </si>
+  <si>
+    <t>Class act!  Our company meeting (2 days) was held at this hotel and everyone raved about the staff and the rooms. Everything was great from the food to the setting up the conference room. Thanks to the Director of Sales Kristen Habetz and her staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Class act!  Our company meeting (2 days) was held at this hotel and everyone raved about the staff and the rooms. Everything was great from the food to the setting up the conference room. Thanks to the Director of Sales Kristen Habetz and her staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r227152000-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>227152000</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>Wonderful breakfast</t>
+  </si>
+  <si>
+    <t>Wonderful breakfast, with cantaloupe, strawberries, pineapple and good eggs !  Watch out when you walk around the bed, the board sticks out and gets you in the leg !  Don't be too close to the bed, it bites .  Beautiful room, roomy and clean, my family love it, and will come again !  We were there on a Friday morning wake up with the garbage pick up and lawn mower going before 7 am, I needed to get up anyway, but if you want to sleep in, ask for a room that looks inside toward the swimming pool ! Great hotel !MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Wonderful breakfast, with cantaloupe, strawberries, pineapple and good eggs !  Watch out when you walk around the bed, the board sticks out and gets you in the leg !  Don't be too close to the bed, it bites .  Beautiful room, roomy and clean, my family love it, and will come again !  We were there on a Friday morning wake up with the garbage pick up and lawn mower going before 7 am, I needed to get up anyway, but if you want to sleep in, ask for a room that looks inside toward the swimming pool ! Great hotel !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r198431545-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>198431545</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Just like home!</t>
+  </si>
+  <si>
+    <t>Got the 2 room suite and it was better than any 2 room suite I have been in. Very clean! I love the bathroom floor, it's not the tile floor that makes the bathroom feel cold and clamy. Very modern look. For me, it is literally home away from home. With a 3yr old, cleanliness is a must! Plenty of pillows on the beds. I did not know about staybridge but from now on, anytime i travel, i will look for a staybridge first.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r197334116-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>197334116</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>My family (two kids 6 and 3) stayed here two nights for spring bread short vacation (actually we will be checking out tomorrow). I chose this hotel based on the favorable reviews and it worked well.This hotel seems newly built or renovated and very clean. Breakfast and the complimentary dinner social (Tue-Thur) was really great. Location is great as well very close from Hwy59, and the staff members were very friendly and helpful.The only complaint I have is that there is paint job still going on on the 4th floor and it smelled not so good in the hallway. It would be much better if they have 2Q suite as well. But I would recommend this hotel definitely.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My family (two kids 6 and 3) stayed here two nights for spring bread short vacation (actually we will be checking out tomorrow). I chose this hotel based on the favorable reviews and it worked well.This hotel seems newly built or renovated and very clean. Breakfast and the complimentary dinner social (Tue-Thur) was really great. Location is great as well very close from Hwy59, and the staff members were very friendly and helpful.The only complaint I have is that there is paint job still going on on the 4th floor and it smelled not so good in the hallway. It would be much better if they have 2Q suite as well. But I would recommend this hotel definitely.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r188078088-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>188078088</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>As always a great stay at the Staybridge</t>
+  </si>
+  <si>
+    <t>I always try to stay at a Staybridge when I travel with work. I had a very pleasant experience with the Stafford, TX location. It has pretty easy access off the highway and is close to some shopping areas and some food. It was well lit inside and very inviting. The breakfast was good as usual with eggs, biscuits, sausage, bacon, depending on the days. There was always fresh fruit, oatmeal, pastries, cereal. The food during the week was pretty good and helped me save some money for having to go out to eat. The week I was there they had BBQ sliders with salad, tacos/nachos, hambergers and hot dogs. The free wine and beer are nice as well. I would stay here again if I am ever in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I always try to stay at a Staybridge when I travel with work. I had a very pleasant experience with the Stafford, TX location. It has pretty easy access off the highway and is close to some shopping areas and some food. It was well lit inside and very inviting. The breakfast was good as usual with eggs, biscuits, sausage, bacon, depending on the days. There was always fresh fruit, oatmeal, pastries, cereal. The food during the week was pretty good and helped me save some money for having to go out to eat. The week I was there they had BBQ sliders with salad, tacos/nachos, hambergers and hot dogs. The free wine and beer are nice as well. I would stay here again if I am ever in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r182169799-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>182169799</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Great business Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel, friendly staff, plus free food and beer and wine from 5:30-7:30. Nice way to unwind when in town on business. The staff is very friendly and helpful. The room was spacious and comfortable. The pillows made the bed almost like home. I would definitely recommend this places for business travel.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r181933585-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>181933585</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>I spent 2 nights here but wished I could have spent more instead of transferring to another hotel closer to Hobby airport. The room was modern and spotless. I truly loved the decor and the layout! I felt like I was in an apartment I could have easily called my own. It was outfitted with everything to make the stay comfortable, down to a corkscrew for my wine. Breakfast was an assortment of fruits, the usual continental offers and they even threw in pizza!Next time I am in Houston, this will definitely be my pick.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r172140599-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>172140599</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Love Staybridge</t>
+  </si>
+  <si>
+    <t>This place has it all. We had an excellent stay. Rooms were spacious and clean. Pool was nice. Breakfast and light dinner was great. Friendly staff.  I have nothing bad to say about this place. I am surely looking forward to staying here again. Really enjoyed this hotel.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r158678313-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158678313</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Everything went well from check in to check out! no problems to report. Staff was friendly. Room was up to date, and clean. As a matter of fact, the entire hotel looked brand new.Will definitely stay again soon.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r158249159-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158249159</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Good backup option for business trip</t>
+  </si>
+  <si>
+    <t>For the money, this was a great option for a one-night stay in the Stafford/Sugar Land area. Our normal contracted hotels were sold out, so we stayed at the Staybridge vs the Hyatt or Marriott Town Square. The rooms were modern and nicely designed. The shower was good and the bed was soft (pillows weren't great, but that's expected).  The exercise room was sufficient, as was the morning breakfast. Having the soft drink fountain downstairs was much appreciated by this diet coke fiend. I didn't interact with any of the staff aside from the nice young man at check in who quickly got my keys ready etc. My only real complaint was that my room smelled faintly of cigarette smoke... Ewwwww. I aired it out for a few hours but it still had that smokey tinge to it. Again, it was a good value but I would rather stay at a completely non-smoking facility (meaning no smoking near the perimeter of the hotel either) than risk my room reeking. I went into the situation knowing that I wasn't staying at the Four Seasons so wasn't disappointed. I'd stay here again if my usual joints are sold out again, so long as I can stay in a non-smelly room.MoreShow less</t>
+  </si>
+  <si>
+    <t>For the money, this was a great option for a one-night stay in the Stafford/Sugar Land area. Our normal contracted hotels were sold out, so we stayed at the Staybridge vs the Hyatt or Marriott Town Square. The rooms were modern and nicely designed. The shower was good and the bed was soft (pillows weren't great, but that's expected).  The exercise room was sufficient, as was the morning breakfast. Having the soft drink fountain downstairs was much appreciated by this diet coke fiend. I didn't interact with any of the staff aside from the nice young man at check in who quickly got my keys ready etc. My only real complaint was that my room smelled faintly of cigarette smoke... Ewwwww. I aired it out for a few hours but it still had that smokey tinge to it. Again, it was a good value but I would rather stay at a completely non-smoking facility (meaning no smoking near the perimeter of the hotel either) than risk my room reeking. I went into the situation knowing that I wasn't staying at the Four Seasons so wasn't disappointed. I'd stay here again if my usual joints are sold out again, so long as I can stay in a non-smelly room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r155802298-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>155802298</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>clean rooms, great breakfast buffet and happy hour!</t>
+  </si>
+  <si>
+    <t>This location appears to be brand new, with the latest decor in the rooms and in the lobby/breakfast area.  Breakfast buffet has fresh fruit (not canned), waffles, eggs, meats, etc.  Happy hour with free beer, wine and hot foods give you something to look forward to at the end of the day.  This site even has a home-theater seating area with a big screen TV and a stash of DVDs at the ready, with a popcorn machine on standby.  Looking forward to returning for a longer visit.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r148396894-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>148396894</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Totally Impressed</t>
+  </si>
+  <si>
+    <t>My husband and I travel often.  This hotel was one of the best that we have stayed in.  We were totally impressed from the moment we walked into the lobby.  I spoke to the manager who told me this hotel is a prototype of where Staybridge wants to go with their hotels so this location was built recently.  When we opened the door to our room, we could not believe our eyes.  Not only did we have a king size bed, but we also had a kitchenette (dishwasher included) with granite counter tops.  There was a very comfortable sofa that was also a bed.  The bathroom was very roomy with a separate shower/potty room.  There were nice fluffy linens and great smelling shampoo/conditioner.  In the morning, breakfast was unbelievable - fresh fruits, yogurts, cereal/hot oatmeal, eggs, sausage, muffins, Texas shaped waffles, juice and some of the best hotel coffee we have had.  Too bad it was cold outside because their pool looked very inviting.  They also have a fire pit area.  There is a movie room where you can borrow one of their DVD's or watch your own.  We also visited the shopping center across the street and went to Sugarland for a visit to the Flying Saucer for some great beer.  The hotel is a distance from the freeway which cut down on noise.  This location was perfect since my in-laws live only a few minutes away.  We will...My husband and I travel often.  This hotel was one of the best that we have stayed in.  We were totally impressed from the moment we walked into the lobby.  I spoke to the manager who told me this hotel is a prototype of where Staybridge wants to go with their hotels so this location was built recently.  When we opened the door to our room, we could not believe our eyes.  Not only did we have a king size bed, but we also had a kitchenette (dishwasher included) with granite counter tops.  There was a very comfortable sofa that was also a bed.  The bathroom was very roomy with a separate shower/potty room.  There were nice fluffy linens and great smelling shampoo/conditioner.  In the morning, breakfast was unbelievable - fresh fruits, yogurts, cereal/hot oatmeal, eggs, sausage, muffins, Texas shaped waffles, juice and some of the best hotel coffee we have had.  Too bad it was cold outside because their pool looked very inviting.  They also have a fire pit area.  There is a movie room where you can borrow one of their DVD's or watch your own.  We also visited the shopping center across the street and went to Sugarland for a visit to the Flying Saucer for some great beer.  The hotel is a distance from the freeway which cut down on noise.  This location was perfect since my in-laws live only a few minutes away.  We will definitely stay here again when visiting the in-laws.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My husband and I travel often.  This hotel was one of the best that we have stayed in.  We were totally impressed from the moment we walked into the lobby.  I spoke to the manager who told me this hotel is a prototype of where Staybridge wants to go with their hotels so this location was built recently.  When we opened the door to our room, we could not believe our eyes.  Not only did we have a king size bed, but we also had a kitchenette (dishwasher included) with granite counter tops.  There was a very comfortable sofa that was also a bed.  The bathroom was very roomy with a separate shower/potty room.  There were nice fluffy linens and great smelling shampoo/conditioner.  In the morning, breakfast was unbelievable - fresh fruits, yogurts, cereal/hot oatmeal, eggs, sausage, muffins, Texas shaped waffles, juice and some of the best hotel coffee we have had.  Too bad it was cold outside because their pool looked very inviting.  They also have a fire pit area.  There is a movie room where you can borrow one of their DVD's or watch your own.  We also visited the shopping center across the street and went to Sugarland for a visit to the Flying Saucer for some great beer.  The hotel is a distance from the freeway which cut down on noise.  This location was perfect since my in-laws live only a few minutes away.  We will...My husband and I travel often.  This hotel was one of the best that we have stayed in.  We were totally impressed from the moment we walked into the lobby.  I spoke to the manager who told me this hotel is a prototype of where Staybridge wants to go with their hotels so this location was built recently.  When we opened the door to our room, we could not believe our eyes.  Not only did we have a king size bed, but we also had a kitchenette (dishwasher included) with granite counter tops.  There was a very comfortable sofa that was also a bed.  The bathroom was very roomy with a separate shower/potty room.  There were nice fluffy linens and great smelling shampoo/conditioner.  In the morning, breakfast was unbelievable - fresh fruits, yogurts, cereal/hot oatmeal, eggs, sausage, muffins, Texas shaped waffles, juice and some of the best hotel coffee we have had.  Too bad it was cold outside because their pool looked very inviting.  They also have a fire pit area.  There is a movie room where you can borrow one of their DVD's or watch your own.  We also visited the shopping center across the street and went to Sugarland for a visit to the Flying Saucer for some great beer.  The hotel is a distance from the freeway which cut down on noise.  This location was perfect since my in-laws live only a few minutes away.  We will definitely stay here again when visiting the in-laws.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r147844512-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>147844512</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>My first stay at a Staybridge - a little of the beaten path but worth the search</t>
+  </si>
+  <si>
+    <t>this hotel sits behind a shopping center and you do not see it from the main road but worth finding. This is my first stay and i was really surprised, very clean, well maintained property. service was good, social hour good, morning breakfast above expectations, other places would charge for this. Will continue looking for other opportunities to stay at a Staybridge,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r147016858-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>147016858</t>
+  </si>
+  <si>
+    <t>12/08/2012</t>
+  </si>
+  <si>
+    <t>Best place I have ever stayed in Houston!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was incredible. I loved how updated and modern everything was. When I checked in they mention the social hour from 5pm to 7pm. I didn't realize it would be complementary  dinner an drinks!  I was amazed with the service and the location. The shopping center located across the street had everything you could hope for. I won't stay anywhere else when I return to TX. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r133720129-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>133720129</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>A Breakfast Buffet that is awesome!!</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler and I can honestly say ,this is the best hotel I've ever visited. The breakfast buffet consists of  hashbrowns, biscuits or french toast, scrambled eggs or cheese omelets, boiled eggs, waffles in the shape of Texas, english muffins, bagels, muffins, toast, cantelope, pineapple, strawberries yogurt, cottage cheese 6 different coffees, 8 different teas, cranberry juice, orange juice and apple juice. Then it has a theater room with movies you can watch, meeting room, free laundry facilities, grill area with state of the art gas grills, outdoor swimming pool with a beautiful sitting area and fire pit;  excellent fitness center, business media room, free internet and a DVD player in the room. The one bedroom suite has all the amenties of a 1 bedroom apt and a pull out sofa bed, 2 flat screen tvs, King size bed in the bedroom. And if that wasn't enough, it has a social hour from 5:30 pm - 7:30 pm Tues- Thurs that offers great socializing and networking with free beer, wine, or coke product for beverage and snacks.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler and I can honestly say ,this is the best hotel I've ever visited. The breakfast buffet consists of  hashbrowns, biscuits or french toast, scrambled eggs or cheese omelets, boiled eggs, waffles in the shape of Texas, english muffins, bagels, muffins, toast, cantelope, pineapple, strawberries yogurt, cottage cheese 6 different coffees, 8 different teas, cranberry juice, orange juice and apple juice. Then it has a theater room with movies you can watch, meeting room, free laundry facilities, grill area with state of the art gas grills, outdoor swimming pool with a beautiful sitting area and fire pit;  excellent fitness center, business media room, free internet and a DVD player in the room. The one bedroom suite has all the amenties of a 1 bedroom apt and a pull out sofa bed, 2 flat screen tvs, King size bed in the bedroom. And if that wasn't enough, it has a social hour from 5:30 pm - 7:30 pm Tues- Thurs that offers great socializing and networking with free beer, wine, or coke product for beverage and snacks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r133434413-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>133434413</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Excellent !</t>
+  </si>
+  <si>
+    <t>This was our second stay at a Staybridge and we are now hooked on this brand of hotels ! We stayed at the one in Harrisburg, PA a few days back and both are very similar and very, very, nice. This one in Houston / Stafford  has spacious rooms and bathrooms with very comfortable and well designed furniture. Superb breakfast and a HOME THEATER in the common area, amazing ! The staff is very hospitable. The location is good, with plenty of shops and food nearby. I would strongly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r131223803-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>131223803</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Wonderful stay!  Wonderful room and delightful staff</t>
+  </si>
+  <si>
+    <t>Everything about this Staybridge was fantastic! We were impressed as soon as we arrived by the helpful front desk staff, nice decor, and our very clean, comfortable room.  The pool was lovely and the breakfast was among the best we've had at many similarly priced hotels. We travel a lot, and this was our best hotel experience in recent memory.  Highly recommend to anyone visiting the Sugarland area.   Note:  This hotel is pet friendly!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r108028229-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>108028229</t>
+  </si>
+  <si>
+    <t>05/12/2011</t>
+  </si>
+  <si>
+    <t>great stay with a friendly staff and convenient location</t>
+  </si>
+  <si>
+    <t>We stayed in the 2 bedroom suite and it was perfect with 2 teenagers.  There was plenty of room and the kids bedroom had 2 queen beds and a separate bathroom for them. There was a nice kitchen and the room also had 3 tvs.  The hotel breakfast was wonderful and had so many choices and the reception at night, Tues-Thurs, was nice with hamburgers, salad, sodas, beer and wine from 5:30pm-7:30pm.  We found the staff friendly and helpful. It is in a convenient location, next to a movie complex, shopping center and restaurants.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r102925379-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>102925379</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>Smells too new</t>
+  </si>
+  <si>
+    <t>This hotel is obviously brand new. It's a nice hotel, but whatever materials they used in the construction, such as the carpets and upholstery, really needed some time to breathe before opening the hotel to guests. The smell of ultra-new everything was overwhelming. It was as if everything was outgassing from the manufacturing process. It just felt a bit too institutional, too. It didn't have enough of a friendly feeling. Again, that may be because it is brand new.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1594,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1626,2917 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>137</v>
+      </c>
+      <c r="X11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>155</v>
+      </c>
+      <c r="X13" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>164</v>
+      </c>
+      <c r="X14" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>172</v>
+      </c>
+      <c r="X15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>180</v>
+      </c>
+      <c r="X16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" t="s">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>189</v>
+      </c>
+      <c r="X17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>193</v>
+      </c>
+      <c r="J18" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s">
+        <v>196</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>197</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>198</v>
+      </c>
+      <c r="X18" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>244</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>245</v>
+      </c>
+      <c r="X24" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>262</v>
+      </c>
+      <c r="X26" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>270</v>
+      </c>
+      <c r="X27" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" t="s">
+        <v>275</v>
+      </c>
+      <c r="K28" t="s">
+        <v>276</v>
+      </c>
+      <c r="L28" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>278</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>279</v>
+      </c>
+      <c r="X28" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>283</v>
+      </c>
+      <c r="J29" t="s">
+        <v>284</v>
+      </c>
+      <c r="K29" t="s">
+        <v>285</v>
+      </c>
+      <c r="L29" t="s">
+        <v>286</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
+        <v>290</v>
+      </c>
+      <c r="L30" t="s">
+        <v>291</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>292</v>
+      </c>
+      <c r="O30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>295</v>
+      </c>
+      <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L31" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>299</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>306</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" t="s">
+        <v>311</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>313</v>
+      </c>
+      <c r="J34" t="s">
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>317</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>323</v>
+      </c>
+      <c r="O35" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>325</v>
+      </c>
+      <c r="J36" t="s">
+        <v>326</v>
+      </c>
+      <c r="K36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s">
+        <v>328</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>336</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>337</v>
+      </c>
+      <c r="J38" t="s">
+        <v>338</v>
+      </c>
+      <c r="K38" t="s">
+        <v>339</v>
+      </c>
+      <c r="L38" t="s">
+        <v>340</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>341</v>
+      </c>
+      <c r="O38" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>341</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>350</v>
+      </c>
+      <c r="K40" t="s">
+        <v>351</v>
+      </c>
+      <c r="L40" t="s">
+        <v>352</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>355</v>
+      </c>
+      <c r="K41" t="s">
+        <v>356</v>
+      </c>
+      <c r="L41" t="s">
+        <v>357</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>91</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>361</v>
+      </c>
+      <c r="J42" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" t="s">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s">
+        <v>364</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>371</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="J44" t="s">
+        <v>374</v>
+      </c>
+      <c r="K44" t="s">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>377</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>379</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_605.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_605.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="612">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,113 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r612100723-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>1837056</t>
+  </si>
+  <si>
+    <t>612100723</t>
+  </si>
+  <si>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Convenient location off of interstate. Plenty of restraunts and shopping nearby. Very clean. Complimetary breakfast has a good selection. Several times a week they have social hour in the evening and provide dinner as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Convenient location off of interstate. Plenty of restraunts and shopping nearby. Very clean. Complimetary breakfast has a good selection. Several times a week they have social hour in the evening and provide dinner as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r597696097-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>597696097</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>I'm moving in!</t>
+  </si>
+  <si>
+    <t>Remember your first tiny apartment where you merely had a kitchen, a little living room, a bathroom, and a bed? Before you collected a bunch of extraneous junk? This is exactly what this room reminded me of. 
+Yet, we had everything we needed. It was like I walked into a dream of living simply. 
+There was a good sized refrigerator, efficient kitchen with pots, pans, plates, cups, and whatever else you'd need to make a quick meal. I love that we had access to recipes from Carla Hall which were designed to work with the cooking implements available in the room. What a nice touch! Had we stayed longer they would have been happily used. 
+The staff was extremely friendly and found us a room that had been serviced already, allowing us to check in early. 
+The room was clean and the design of the room and the common spaces were very tidy and modern. Things such as coffee tables which doubled as storage made me appreciate the utility of the room which hid a generous amount of space.
+We slept well; the beds and pillows were comfy and we didn't hear any noise from the other rooms or hallways.
+Breakfast was a wide variety of food and was kept well-stocked. The pool (although we didn't get a chance to use it) looked inviting.
+The hotel has social receptions and although there weren't any the night we stayed, they sounded...Remember your first tiny apartment where you merely had a kitchen, a little living room, a bathroom, and a bed? Before you collected a bunch of extraneous junk? This is exactly what this room reminded me of. Yet, we had everything we needed. It was like I walked into a dream of living simply. There was a good sized refrigerator, efficient kitchen with pots, pans, plates, cups, and whatever else you'd need to make a quick meal. I love that we had access to recipes from Carla Hall which were designed to work with the cooking implements available in the room. What a nice touch! Had we stayed longer they would have been happily used. The staff was extremely friendly and found us a room that had been serviced already, allowing us to check in early. The room was clean and the design of the room and the common spaces were very tidy and modern. Things such as coffee tables which doubled as storage made me appreciate the utility of the room which hid a generous amount of space.We slept well; the beds and pillows were comfy and we didn't hear any noise from the other rooms or hallways.Breakfast was a wide variety of food and was kept well-stocked. The pool (although we didn't get a chance to use it) looked inviting.The hotel has social receptions and although there weren't any the night we stayed, they sounded fun. There was also a media room and if I *really* wanted to pretend to travel back in time, all I needed to do was see how old some of the movies were ;). Hellooooo VHS tapes!! (there was a smart tv with USB connection available which matched rest of the modern amenities). It really had all the basics we could want or need, plus a courteous staff. It was just what we were looking for.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Remember your first tiny apartment where you merely had a kitchen, a little living room, a bathroom, and a bed? Before you collected a bunch of extraneous junk? This is exactly what this room reminded me of. 
+Yet, we had everything we needed. It was like I walked into a dream of living simply. 
+There was a good sized refrigerator, efficient kitchen with pots, pans, plates, cups, and whatever else you'd need to make a quick meal. I love that we had access to recipes from Carla Hall which were designed to work with the cooking implements available in the room. What a nice touch! Had we stayed longer they would have been happily used. 
+The staff was extremely friendly and found us a room that had been serviced already, allowing us to check in early. 
+The room was clean and the design of the room and the common spaces were very tidy and modern. Things such as coffee tables which doubled as storage made me appreciate the utility of the room which hid a generous amount of space.
+We slept well; the beds and pillows were comfy and we didn't hear any noise from the other rooms or hallways.
+Breakfast was a wide variety of food and was kept well-stocked. The pool (although we didn't get a chance to use it) looked inviting.
+The hotel has social receptions and although there weren't any the night we stayed, they sounded...Remember your first tiny apartment where you merely had a kitchen, a little living room, a bathroom, and a bed? Before you collected a bunch of extraneous junk? This is exactly what this room reminded me of. Yet, we had everything we needed. It was like I walked into a dream of living simply. There was a good sized refrigerator, efficient kitchen with pots, pans, plates, cups, and whatever else you'd need to make a quick meal. I love that we had access to recipes from Carla Hall which were designed to work with the cooking implements available in the room. What a nice touch! Had we stayed longer they would have been happily used. The staff was extremely friendly and found us a room that had been serviced already, allowing us to check in early. The room was clean and the design of the room and the common spaces were very tidy and modern. Things such as coffee tables which doubled as storage made me appreciate the utility of the room which hid a generous amount of space.We slept well; the beds and pillows were comfy and we didn't hear any noise from the other rooms or hallways.Breakfast was a wide variety of food and was kept well-stocked. The pool (although we didn't get a chance to use it) looked inviting.The hotel has social receptions and although there weren't any the night we stayed, they sounded fun. There was also a media room and if I *really* wanted to pretend to travel back in time, all I needed to do was see how old some of the movies were ;). Hellooooo VHS tapes!! (there was a smart tv with USB connection available which matched rest of the modern amenities). It really had all the basics we could want or need, plus a courteous staff. It was just what we were looking for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r603649170-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>603649170</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Very nice weekend getaway</t>
+  </si>
+  <si>
+    <t>We have stayed at Staybridge Suites before and always enjoy them.  We were recognized as platinum members upon arrival and upgraded to a very nice suite.  It was very spacious and neat.  The breakfast buffet was great as always-good variety of food and options.  Each afternoon when we returned there was a plate of cookies out for guests which was a nice touch.  Although we did not have our dog with us this time, we have in the past which is very appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We have stayed at Staybridge Suites before and always enjoy them.  We were recognized as platinum members upon arrival and upgraded to a very nice suite.  It was very spacious and neat.  The breakfast buffet was great as always-good variety of food and options.  Each afternoon when we returned there was a plate of cookies out for guests which was a nice touch.  Although we did not have our dog with us this time, we have in the past which is very appreciated.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r601643071-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
-    <t>56707</t>
-  </si>
-  <si>
-    <t>1837056</t>
-  </si>
-  <si>
     <t>601643071</t>
   </si>
   <si>
@@ -180,10 +275,10 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>00gc, Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00gc, Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded August 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2018</t>
   </si>
   <si>
     <t>Reserved a one bedroom suite with king bed well in advance of arrival and received confirmation. Upon arrival, was given a studio with a queen bed. Went back to front desk, stated this is not what I reserved and was told my only option was a studio with a king. I asked if the property actually had one bedroom suites and was told they are all sold out. When I stated that since I am getting a lesser room than I paid for, I was told that it is the same rate (it is not) and that I should be happy because I got a really great rate. Staybridge should have alerted me in advance that they were sold out versus confirming that I was getting what I paid for, not charged for me for a room I did not receive, and if there was some sort of last minute screw up, they should have at least charged me something less since I got a studio. Since this was a complete rip-off  I won't ever book a Staybridge property again, but if you choose to do so, call ahead regardless of your email confirmation to ensure that you actually receive the room you paid for versus the bait and switch.More</t>
@@ -246,6 +341,57 @@
     <t>I often park my cars in sports at the end of row. To protect it from car doors and people parking closely to it.  I always back in when parking. I often drive a large pick-up truck and so I am not backing the bumper over a sidewalk I try to park in spots lined by fences, curbs or landscaping. I share all of this to say hotel bushes and trees are often overgrown and scratch the sides, back and sometimes even the roof of my truck.  This hotel keeps their landscape well trimmed and I don’t have to worry about the bushes and trees scratching my car. I very much appreciate the effort this property has taken to keep the bushes and tree limbs form encroaching into the parking area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r567999902-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>567999902</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>!!Blown Away!!</t>
+  </si>
+  <si>
+    <t>This hotel has set the bar high for others. Clean facility, spacious rooms, friendly staff, great location (next to restaurants, theater, expressway, etc) and very very well kept. Breakfast was great and they even offer complimentary dinner on some days MoreShow less</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>This hotel has set the bar high for others. Clean facility, spacious rooms, friendly staff, great location (next to restaurants, theater, expressway, etc) and very very well kept. Breakfast was great and they even offer complimentary dinner on some days More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r563654044-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>563654044</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This was my first time staying at Staybridge. I travel back an forth from Louisiana to Texas a couple times a month for chemo treatments so I’ve stayed at a lot of places. This is by far my favorite place I’ve stayed. The staff is very friendly an comforting. I will most likely stay here in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>This was my first time staying at Staybridge. I travel back an forth from Louisiana to Texas a couple times a month for chemo treatments so I’ve stayed at a lot of places. This is by far my favorite place I’ve stayed. The staff is very friendly an comforting. I will most likely stay here in the future. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r555214919-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -291,9 +437,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded November 28, 2017</t>
   </si>
   <si>
@@ -327,6 +470,60 @@
     <t>We moved into the Staybridge for just under two weeks after we sold our home and were moving out of the country for a job.  Staybridge is amazing.  wonderful breakfast every morning and on Monday, Tuesday and Wednesday they have dinner.  Dinner and happy hour were good and it was nice to be able to not have to worry about meals a few night a week while staying at a hotel.  The staff are friendly and helpful and since we were supposed to be leaving about the time Hurricane Harvey hit, they were very flexible with out dates of travel.  Allowing us to book extra days or leave at a moments notice.  They have a nice pool and the laundry facilities are also great, multiple washers and dryers all nice large capacity and free.  We stayed in a 1 bedroom suite with a kitchen and we loved being able to have a fridge with some of our own food if we wanted it.  They also have a shuttle and several restaurants in the close vicinity. Excellent clean facility.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r537423404-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>537423404</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Comfortable 2 bedroom, 2 bath suite</t>
+  </si>
+  <si>
+    <t>We got moved here after booking at another hotel and they gave our room away so I moved my reservation here so we could have the 2 bedroom we reserved at the other hotel.  They didn’t honor the rate from the other hotel.  I loved the set up of the 2 bedroom.  One room with a king bed, big closet and bathroom.  The other bedroom with two queen beds and separate bathroom.  It also has a sofa bed in the living room.  The kitchen is stocked with dishes, microwave, coffee pot, glasses, dishwashing soap, coffee, popcorn.  Everything was very clean.  We noticed a few places that were worn or could have been cleaned better but we still were very comfortable.  Breakfast was well stocked, eggs, potatoes, sausage, boiled eggs, yogurt, waffles, cereal, oatmeal.  I am on a strict diet and still could find foods that were on plan for me.  They take really good care to make sure everything is stocked and clean for breakfast.  We would definitely stay here again!  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>We got moved here after booking at another hotel and they gave our room away so I moved my reservation here so we could have the 2 bedroom we reserved at the other hotel.  They didn’t honor the rate from the other hotel.  I loved the set up of the 2 bedroom.  One room with a king bed, big closet and bathroom.  The other bedroom with two queen beds and separate bathroom.  It also has a sofa bed in the living room.  The kitchen is stocked with dishes, microwave, coffee pot, glasses, dishwashing soap, coffee, popcorn.  Everything was very clean.  We noticed a few places that were worn or could have been cleaned better but we still were very comfortable.  Breakfast was well stocked, eggs, potatoes, sausage, boiled eggs, yogurt, waffles, cereal, oatmeal.  I am on a strict diet and still could find foods that were on plan for me.  They take really good care to make sure everything is stocked and clean for breakfast.  We would definitely stay here again!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r537019854-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>537019854</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>large and comfortable rooms, convenient location</t>
+  </si>
+  <si>
+    <t>Was on business travel, so picked the location due to convenience.  The rooms are large and clean and reasonable appointed. The breakfast is okay for a free buffet.    Next to a shopping mall that has a few restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>00gc, General Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Was on business travel, so picked the location due to convenience.  The rooms are large and clean and reasonable appointed. The breakfast is okay for a free buffet.    Next to a shopping mall that has a few restaurants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r481542959-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -399,9 +596,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded January 30, 2017</t>
   </si>
   <si>
@@ -411,6 +605,57 @@
     <t>I am not someone who is fancy or in need of much We were really excited to be In a nice clean hotel for our honeymoon, and we got there and everything seemed good. We got settled in and left came back and first thing we saw was chocolate with Carmel  all over the floors downstairs by the elevator which stayed there until we left. Staff did seem friendly although as we were cleaning our room to leave and pushed back the curtains to open up windows, we found a used condom on the floor we were compelty im shock and grossed out to say the least and felt so dirty after that feeling like the what else did the housekeepers not clean or miss from the last stay ! I have always enjoyed stay ridge hotels but due to this I am unsure if I want to stay again. When we told the receptionist / staff downstairs she giggled and then said sorry. It jjst did not seem to do what happened justice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r451586208-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>451586208</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Better to just go somewhere else</t>
+  </si>
+  <si>
+    <t>Our experience was a complete disappointment from the moment we checked in. The front desk couldn't find our 3 day reservation because it was booked separately as 1 day and 2 days which led to a lengthy check in process and the revelation that we'd have to re-checkin the next day. The rooms had a musty smell that was covered up by an overpowering air freshener. We had to switch rooms because of the noise of being right beside the laundry room. When they changed our keycard one of them didn't work and when we had to re-checkin the next day we got new keys one of them didn't work AGAIN. No one came to tidy up our room either despite the room being empty from 10am to 8pm. Also, they don't even have complimentary toothbrushes and we had to purchase them from the front desk. TL:DR - Smelly rooms with clumsy, slow or nonexistent service. Wouldn't stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Our experience was a complete disappointment from the moment we checked in. The front desk couldn't find our 3 day reservation because it was booked separately as 1 day and 2 days which led to a lengthy check in process and the revelation that we'd have to re-checkin the next day. The rooms had a musty smell that was covered up by an overpowering air freshener. We had to switch rooms because of the noise of being right beside the laundry room. When they changed our keycard one of them didn't work and when we had to re-checkin the next day we got new keys one of them didn't work AGAIN. No one came to tidy up our room either despite the room being empty from 10am to 8pm. Also, they don't even have complimentary toothbrushes and we had to purchase them from the front desk. TL:DR - Smelly rooms with clumsy, slow or nonexistent service. Wouldn't stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r433512362-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>433512362</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Staybridge Hotel, Stafford Texas</t>
+  </si>
+  <si>
+    <t>Nice clean friendly hotel. Good for family couples travels , corporate retreats etcWe didnt want to leave! It was so cosy and welcoming. Dining entertainment shopping were all a walking distance.Rooms are also a good size , we enjoyed the evening midweek happy hourWe would return to this hotel again. Highly recommended JulietMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Nice clean friendly hotel. Good for family couples travels , corporate retreats etcWe didnt want to leave! It was so cosy and welcoming. Dining entertainment shopping were all a walking distance.Rooms are also a good size , we enjoyed the evening midweek happy hourWe would return to this hotel again. Highly recommended JulietMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r420158715-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -426,9 +671,6 @@
     <t>Nice location.  Near restaurants and the regional airport.  Cozy beds. Nice staff. Rooms have a really nice kitchen in them. Great for families. One thing to be aware of, they are suites with sitting area and kitchen but it all in one large room, no door to separate living area.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded September 23, 2016</t>
   </si>
   <si>
@@ -492,6 +734,51 @@
     <t>Not all the rooms are quite, odd numbered rooms get road noise from the freeway.  While staff in friendly you may need to remind then to replace thing like tissues.  Reasonable breakfast, tasty treats Monday - Wed. Though the cheese sauce in a canned stuff.  Not a bad effort.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r361138001-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>361138001</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>We stayed just one night as we were passing through. The hotel is in a nice and quiet part of town, away from the busy streets, yet you are still really close to all things needed. When we stayed, the front desk didn't let us know that the pool was not in working order. Our kids got their swimming suits on and we tried to enter the pool to find it locked. In talking with the lady at the front desk, she said she didn't think we would be interested in swimming so didn't feel it necessary to mention the non-working pool. It was overcast and 70s with rain in the forecast. We are from Minnesota so that's warm weather to us and we certainly would have used the pool. She understood our frustrations and discounted the room for us. She handled it very well and the rest of the stay was nice. Would certainly recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We stayed just one night as we were passing through. The hotel is in a nice and quiet part of town, away from the busy streets, yet you are still really close to all things needed. When we stayed, the front desk didn't let us know that the pool was not in working order. Our kids got their swimming suits on and we tried to enter the pool to find it locked. In talking with the lady at the front desk, she said she didn't think we would be interested in swimming so didn't feel it necessary to mention the non-working pool. It was overcast and 70s with rain in the forecast. We are from Minnesota so that's warm weather to us and we certainly would have used the pool. She understood our frustrations and discounted the room for us. She handled it very well and the rest of the stay was nice. Would certainly recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r357366205-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>357366205</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Property</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away, and very nice. Clean and rooms are spacious and new looking. I would recommend this hotel, great service, check in was a breeze. Very quiet, not many people there when I booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is tucked away, and very nice. Clean and rooms are spacious and new looking. I would recommend this hotel, great service, check in was a breeze. Very quiet, not many people there when I booked.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r351380785-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -565,6 +852,60 @@
   </si>
   <si>
     <t>I would stay here again.  The staff is very friendly.  They took care of my needs for my kids and the movie theater was awesome, kids loved it. The hot breakfast was great especially the variety of fruits and muffins.  The pool was clean also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r339544265-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>339544265</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Very bad manager Stephanie Fitzgerald</t>
+  </si>
+  <si>
+    <t>The manager Ms. Stephanie Fitzgerald was very bad and she had a fight with her stuff and we do interfer she was bad to us and she asked us to leave the hotel , even she called the police when we told her this is not a manager personalityIn short, you have totally shattered our vacation leaving us more tired than ever. I have written all these comments on the website. Your property and services are not even worthy to be checked-in for free.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2016</t>
+  </si>
+  <si>
+    <t>The manager Ms. Stephanie Fitzgerald was very bad and she had a fight with her stuff and we do interfer she was bad to us and she asked us to leave the hotel , even she called the police when we told her this is not a manager personalityIn short, you have totally shattered our vacation leaving us more tired than ever. I have written all these comments on the website. Your property and services are not even worthy to be checked-in for free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r334057765-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>334057765</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I stay in hotels all the time, first time in a Staybridge, now I'm going to start booking them.  This hotel is very clean, very friendly and helpful staff, great free breakfast, nice rooms, comfortable bed, great internet (very important to me), directv, rate was very good, I'm sold.I did have a problem with my A/C, an alarm went off inside the unit but the manager moved me promptly.  The ONLY negative I have about this hotel is the A/C is a little loud, what they put it in the bedroom rather than the living room area is beyond me but it's not that bad and not a deal breaker.I never considered staying at a Staybridge before but the Holiday Inn Express in this area got poor reviews so I tried it, very happy I did.As I said internet was great, I have recently sworn off Hampton Inn and all Hilton hotels over their decision to charge if you want internet speeds anything above not acceptable.  Holiday Inn's are usually only fair.  Thank you Staybridge for doing what's right and providing good working WIFI.Kudos to the management and entire staff at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative  at Staybridge Suites Houston Stafford, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>I stay in hotels all the time, first time in a Staybridge, now I'm going to start booking them.  This hotel is very clean, very friendly and helpful staff, great free breakfast, nice rooms, comfortable bed, great internet (very important to me), directv, rate was very good, I'm sold.I did have a problem with my A/C, an alarm went off inside the unit but the manager moved me promptly.  The ONLY negative I have about this hotel is the A/C is a little loud, what they put it in the bedroom rather than the living room area is beyond me but it's not that bad and not a deal breaker.I never considered staying at a Staybridge before but the Holiday Inn Express in this area got poor reviews so I tried it, very happy I did.As I said internet was great, I have recently sworn off Hampton Inn and all Hilton hotels over their decision to charge if you want internet speeds anything above not acceptable.  Holiday Inn's are usually only fair.  Thank you Staybridge for doing what's right and providing good working WIFI.Kudos to the management and entire staff at this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r329179068-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
@@ -646,6 +987,51 @@
     <t>We've been in many hotels of this brand and this particular one was one of the best.This is what we liked:- well maintained- nice contemporary design of the suites- comfortable bed- well equipped kitchenette- windows can be opened- Wifi worked well- relatively good gym- very quiet- lots of green behind the hotel, no buildings or streets to be seen- a commercial area with many shops and restaurants closebyOn the downside: the breakfast area is very small and it was often hard to find a table</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r312018772-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>312018772</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Recuperating from surgery</t>
+  </si>
+  <si>
+    <t>I had surgery in the Sugar Land area and this hotel was recommended to me. Had a lovely room to recuperate in, along with a kitchenette so I could make my own meals without leaving. The pillow top mattress was a god-send!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>I had surgery in the Sugar Land area and this hotel was recommended to me. Had a lovely room to recuperate in, along with a kitchenette so I could make my own meals without leaving. The pillow top mattress was a god-send!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r298508492-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>298508492</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly prized - great value &amp; comfort!</t>
+  </si>
+  <si>
+    <t>Reasonable rates, very nice suites, nice furnishings, very clean, relatively new.  Front Desk staff very friendly and accommodating. Conveniently located to Houston Hobby Airport and lots of shopping.  I will return!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r289208877-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -718,6 +1104,57 @@
   <si>
     <t>My family has long been a very loyal customer of the Staybridge Suites in Fayetteville, AR, where my grandparents live.  Our family is spread out all over the country and we gather together for the holidays, and a few years ago we discovered the Staybridge in the area and have been so impressed with it that our entire extended family now stays there whenever we visit.  So, when my cousin got married in Sugarland this past week, it seemed natural for us to look for a Staybridge Suites in the area to stay in for that as well.  We assumed the experience would be universally excellent, but were greatly disappointed when we actually got there.   
 We booked this room months in advance, to be sure we had one of the two bedroom suites that fit our family perfectly.  The reservation was made for a room with a King Bed and two full beds with a pullout couch in the living room.  However, when we showed up, there was no king bed.  There was a much smaller bed in it’s place, and there was no way this was going to be comfortable for us.  So, we went to the front desk, where we were informed that we were given the handicapped room, and that they couldn’t move us to a different two bedroom that night, so they would keep us in there and give us a second King suite for the...My family has long been a very loyal customer of the Staybridge Suites in Fayetteville, AR, where my grandparents live.  Our family is spread out all over the country and we gather together for the holidays, and a few years ago we discovered the Staybridge in the area and have been so impressed with it that our entire extended family now stays there whenever we visit.  So, when my cousin got married in Sugarland this past week, it seemed natural for us to look for a Staybridge Suites in the area to stay in for that as well.  We assumed the experience would be universally excellent, but were greatly disappointed when we actually got there.   We booked this room months in advance, to be sure we had one of the two bedroom suites that fit our family perfectly.  The reservation was made for a room with a King Bed and two full beds with a pullout couch in the living room.  However, when we showed up, there was no king bed.  There was a much smaller bed in it’s place, and there was no way this was going to be comfortable for us.  So, we went to the front desk, where we were informed that we were given the handicapped room, and that they couldn’t move us to a different two bedroom that night, so they would keep us in there and give us a second King suite for the night.  The next morning, they promised to have maintenance dismantle the smaller bed and replace it with a King so we could all stay together.  Despite the inconvenience of being separated by four floors and having to unpack everything for one night just to pack it back up in the morning, we agreed, as we really had no other alternative.  The next morning, we packed our stuff up and brought it back to the 2 bedroom suite that they were supposed to fix for us.  We let them know when we left so they could go in and set up the King bed.  A few minutes later we received a phone call telling us that they couldn’t set up the King bed in that room, and that our choices would be to sleep on the King mattress on the floor, or for EVERYONE to pack everything up AGAIN and move to a 2 bedroom suite on the 4th floor.  When we called back, I told them that we would take the other room, as we had no interest in sleeping on a mattress on the floor, but that I expected some sort of discount for the inconvenience of having to move everything AGAIN.  She called me back and told me they could give me a $54 discount on our reservation, which totaled around $1000 for our stay.  I was underwhelmed, to say the least, but we agreed and moved.  When we returned to the hotel and moved into the 4th floor 2 bedroom suite, the first thing that struck us walking in the door was the stench.  It smelled like dirty laundry mixed with a wet dog.  It was horrid.  But we didn’t have any other choices, so we brought our stuff in and acclimated to the smell.   Before we left, I turned the A/C on in the King bedroom to 69 degrees, hoping it would cool down by the time we got back.  However, when we got back several hours later, the room was still 72 degrees.  That was the coolest it would get until our final night there.  That night, I asked my fiancé to let the front desk know that there appeared to be an issue with the A/C when he went downstairs to see about getting some ice from the drink machine.  He did, and we never heard another word about it.  The next day, the temperature was 73 degrees when we woke up, and it was getting muggier in the room (which was made even more wonderful by the lingering smell that struck us every single time we came into the room).  By that night, we were getting concerned as it hit 74 degrees and my father decided to talk to the front desk again.  In the morning, he told them about the issue, and by that point, the thermostat was reading 77 degrees.  They finally appeared to fix it while we were gone that day, so we at least got to spend our final night in a reasonable temperature, though the smell never did go away.  I recorded on my phone some of the other issues we encountered in this room, including one bedroom door that would get stuck to a point that it would easily be a safety hazard if anyone had to evacuate that room in a hurry, as my mother could barely even get it open without someone else’s help.  On top of that, the doors to both bedrooms were VERY loud and squeaky.  You couldn’t enter or exit either room without waking up everyone else in both rooms.  And in the bedroom with the two beds, the curtains would not close completely, allowing a large amount of light into the room, making it hard to sleep.  The water pressure in that room’s sink was so poor that my father just started using the kitchen sink instead.  I also had to bring a remote control to the front desk because the batteries weren’t working (do your housekeepers not test this when they come in?), and I made a record of the furnishings, just in case anyone were to try and charge us for any kind of damage, since the furnishings (and the refrigerator) in these rooms was very worn and not in the kind of shape I’m used to seeing in a hotel like this.  I also took a photo of the pillows from this hotel, which I honestly couldn’t even believe they use.  They’re HALF the size of a normal pillow.  Ironically, there’s a sign on the beds stating that “You’re only as comfortable as your pillows”.  This left me wondering what the thought process was behind depriving people of normal sized pillows and giving them something the size of a throw-pillow instead.  It’s strange and uncomfortable.  I tried calling the front desk to find out if they had any normal pillows, and they informed me they didn’t, so I had to request several more of these weird half pillows in order to even try and get comfortable.  When I received them, I was given several pillowcases to go with them, each of them torn and tattered like an old rag. If you understand the importance of a good pillow, then why on earth don’t you have any? I will give credit where it’s due.  They have free beer, wine, and appetizers during the week that were a nice touch, and the breakfast each morning was excellent. So, you really should commend whoever is running the kitchen there, because they did an excellent job.  But, I’m not sure a good breakfast would be enough to get me to go back to this hotel again.  If I were managing this property and I was aware of a family having an experience like this, I certainly would have reached out to try to make some sort of apology for all of the issues that they had encountered and to try and make it up to them.  We never had anyone do so, and short of me having to specifically request a refund, where they seemed reluctant to even offer us a whopping 5% back after having to move twice due to their errors, nobody ever followed up with us about our troubles or tried to make any effort to apologize for all of these inconveniences, let alone make it up to us or do something to make us want to return to this hotel in the future.  This is unfortunate, because my opinion of the Staybridge brand was so high before staying at this hotel, and I’m incredibly disappointed and will no longer trust the brand to live up to the standards set by the Fayetteville location in other areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r269568002-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>269568002</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>WOW! Clean and pet friendly with lots of stuff nearby.</t>
+  </si>
+  <si>
+    <t>We were so amazed when we checked into this hotel. Usually hotels that are pet friendly are run down and this place we not at all. What a lovely place to stay!! We had a one bedroom suite, which included a kitchen and living room plus bedroom and bathroom. It was such a great value for what we paid. We had two dogs with us so the pet fee ($75 per dog)  cost more than our room, which was a bit annoying, but we were happy to be in a clean hotel room so we overlooked the high pet fee. Free breakfast had a ton of options as well. Will come here again if we need a hotel in South Houston. The area around the hotel has a ton of dining and things to do including a movie theater and bowling. I read a review for a different hotel in Stafford that said it was in a bad neighborhood, but the parts of Stafford we saw seemed to populated and safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>We were so amazed when we checked into this hotel. Usually hotels that are pet friendly are run down and this place we not at all. What a lovely place to stay!! We had a one bedroom suite, which included a kitchen and living room plus bedroom and bathroom. It was such a great value for what we paid. We had two dogs with us so the pet fee ($75 per dog)  cost more than our room, which was a bit annoying, but we were happy to be in a clean hotel room so we overlooked the high pet fee. Free breakfast had a ton of options as well. Will come here again if we need a hotel in South Houston. The area around the hotel has a ton of dining and things to do including a movie theater and bowling. I read a review for a different hotel in Stafford that said it was in a bad neighborhood, but the parts of Stafford we saw seemed to populated and safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r260573298-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>260573298</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Very Modern and Clean</t>
+  </si>
+  <si>
+    <t>We stayed here for the weekend. We loved this hotel. It was very modern and chic. It was clean. I would recommend this hotel to anyone that needs a hotel in the area.  During our stay they were doing renovations to a section of the hotel but the noise was minimal.  I only recalled hearing the construction once. There's also a shopping center within walking distance with restaurants,  and a movie theater. Main Event was also in the shopping center so there's enough to do for everyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for the weekend. We loved this hotel. It was very modern and chic. It was clean. I would recommend this hotel to anyone that needs a hotel in the area.  During our stay they were doing renovations to a section of the hotel but the noise was minimal.  I only recalled hearing the construction once. There's also a shopping center within walking distance with restaurants,  and a movie theater. Main Event was also in the shopping center so there's enough to do for everyone. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r253353792-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
@@ -822,6 +1259,60 @@
     <t>Clean, comfortable, friendly staff. Breakfast had lots of fresh fruits. Small buffet dinner Tuesday through Thursday was very tasty. I would definitely recommend staying at this hotel, when visiting the Houston area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r246448464-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>246448464</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>First WoW impression Fades Away Quickly</t>
+  </si>
+  <si>
+    <t>Stayed there from dec 6-10 2014, our flight was delayed so reached around 9:30 pm, check in was quick but front desk staff forgot to mention location of elevators...no biggy. Next morning breakfast spread was good but nothing out of ordinary for this type of hotel specially for the price.There are only 5 proper table to have breakfast specially if you have young kids because my 4 year old cannot manage to eat either on sofa or counter. We met Mr&amp; Mrs Patel(owners) and may i add very nice people but their staff needs more supervision. Never had any kind of greeting from any staff member even when i said good morning. ..got nothing back....i know this doesn't ruin my stay but still. I wish bad experience would end but no second day on our return housekeeping was not done and when i called front desk...first thing i was asked " was there a no disturb sign your door", on answering no did not get any sorry but was asked amd told....there is no housekeeping staff now....what do you want done. I asked for fresh towels and trash pick up and phone was hung on me without saying a word....20-25 min later someone came and gave us towel.i had way better experience in dury inn not so far away....agreed there lobby is not as fancy looking but from staff, rooms, breakfast....comparable to better than here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Staybridge Suites Houston Stafford, responded to this reviewResponded January 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2015</t>
+  </si>
+  <si>
+    <t>Stayed there from dec 6-10 2014, our flight was delayed so reached around 9:30 pm, check in was quick but front desk staff forgot to mention location of elevators...no biggy. Next morning breakfast spread was good but nothing out of ordinary for this type of hotel specially for the price.There are only 5 proper table to have breakfast specially if you have young kids because my 4 year old cannot manage to eat either on sofa or counter. We met Mr&amp; Mrs Patel(owners) and may i add very nice people but their staff needs more supervision. Never had any kind of greeting from any staff member even when i said good morning. ..got nothing back....i know this doesn't ruin my stay but still. I wish bad experience would end but no second day on our return housekeeping was not done and when i called front desk...first thing i was asked " was there a no disturb sign your door", on answering no did not get any sorry but was asked amd told....there is no housekeeping staff now....what do you want done. I asked for fresh towels and trash pick up and phone was hung on me without saying a word....20-25 min later someone came and gave us towel.i had way better experience in dury inn not so far away....agreed there lobby is not as fancy looking but from staff, rooms, breakfast....comparable to better than here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r243433291-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>243433291</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Courteous staff and lovely room</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel over Easter visiting local friends after staying in a Staybridge hotel in the UK. We had a lovely room with great facilities available (amazing buffet breakfast!) and friendly staff. Really comfortable beds too! It's not too far from the airport and easy to access.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel over Easter visiting local friends after staying in a Staybridge hotel in the UK. We had a lovely room with great facilities available (amazing buffet breakfast!) and friendly staff. Really comfortable beds too! It's not too far from the airport and easy to access.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r236492641-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -837,9 +1328,6 @@
     <t>It was a great stay for a short business trip. Room was great. Staff were friendly. Though the internet was down during first night, it was quickly recovered the next morning. The hotel management was nice to even to issue a letter to explain the issue.MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>Ronald G, Guest Service Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded October 29, 2014</t>
   </si>
   <si>
@@ -900,6 +1388,45 @@
     <t>Wonderful breakfast, with cantaloupe, strawberries, pineapple and good eggs !  Watch out when you walk around the bed, the board sticks out and gets you in the leg !  Don't be too close to the bed, it bites .  Beautiful room, roomy and clean, my family love it, and will come again !  We were there on a Friday morning wake up with the garbage pick up and lawn mower going before 7 am, I needed to get up anyway, but if you want to sleep in, ask for a room that looks inside toward the swimming pool ! Great hotel !More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r221297366-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>221297366</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Clean, Updated, Very Good Value</t>
+  </si>
+  <si>
+    <t>Our company reserved rooms at this hotel for a group business meeting.  I travel about 50% of my time for business and stay at a lot of hotels.  When you stay at enough   hotels, you start to get a sense of what differentiates say a 2,3,4-star property (e.g. things like quality of linen, etc.)Anyway, that's my preamble to say that, although not excellent, this was a very good, solid 3-star hotel.  The construction looked relatively new, rooms were very clean with kitchenette, etc.  The staff were very efficient and friendly.  I gave one extra star for the fact of all the extra amenities at the hotel from pool to workout room to snack bar , wifi and free breakfast.  If you were a family traveling on a budget or in the area for business and just need a clean place to stay with a few extras, this is a good choice.  (Final note:  If you are reading this review and more than a year has passed, check a more recent review. While a good value, lower star hotels like this can be great when they are new, but go downhill fast because they can't afford the upkeep.)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Ronald G, Guest Services Representative at Staybridge Suites Houston Stafford, responded to this reviewResponded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2014</t>
+  </si>
+  <si>
+    <t>Our company reserved rooms at this hotel for a group business meeting.  I travel about 50% of my time for business and stay at a lot of hotels.  When you stay at enough   hotels, you start to get a sense of what differentiates say a 2,3,4-star property (e.g. things like quality of linen, etc.)Anyway, that's my preamble to say that, although not excellent, this was a very good, solid 3-star hotel.  The construction looked relatively new, rooms were very clean with kitchenette, etc.  The staff were very efficient and friendly.  I gave one extra star for the fact of all the extra amenities at the hotel from pool to workout room to snack bar , wifi and free breakfast.  If you were a family traveling on a budget or in the area for business and just need a clean place to stay with a few extras, this is a good choice.  (Final note:  If you are reading this review and more than a year has passed, check a more recent review. While a good value, lower star hotels like this can be great when they are new, but go downhill fast because they can't afford the upkeep.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r202907259-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>202907259</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was very clean, nicely decorated and comfortable. I love the stylish interior, convenient kitchen and great quality overall. Great for family of 4 with two kids. The staff was very friendly and helpful. Good breakfast. I would search out this chain after this stay! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r198431545-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1484,42 @@
     <t>I always try to stay at a Staybridge when I travel with work. I had a very pleasant experience with the Stafford, TX location. It has pretty easy access off the highway and is close to some shopping areas and some food. It was well lit inside and very inviting. The breakfast was good as usual with eggs, biscuits, sausage, bacon, depending on the days. There was always fresh fruit, oatmeal, pastries, cereal. The food during the week was pretty good and helped me save some money for having to go out to eat. The week I was there they had BBQ sliders with salad, tacos/nachos, hambergers and hot dogs. The free wine and beer are nice as well. I would stay here again if I am ever in the area!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r186042464-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>186042464</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Exceptional !</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for my entire two weeks business trip at Houston. It's an excellent place and I recommend this hotel giving full rating to it.  The hotel is located less than half a mile from the Southwest Freeway and has green lawns on three sides which present a pleasant view from most of the rooms. There is a small shopping complex on the other side of the road, which had ‘Ottos’ restaurant and few outlets like ‘Old Navy’, ‘Bed, Bath and Beyond’ etc. My suite had a kitchenette and it had fridge, oven, stove, coffee maker and a good quantitiy of utensils and serveware. The bed was cozy with lot of soft pillows. The suite also had lot of towels. There is complimentary breakfast daily, which has lot of varieties. Also, thrice a week, for two hours in the evening, they had social dinner with beer, wine and appetizers. The hotel’s shuttle service is available to pick and drop you anywhere within five miles between 7 am to 7pm on weekdays. You can visit places like First Colony Mall, Target, and Wal-Mart etc. The staff is really is very courteous and their service is greatly appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for my entire two weeks business trip at Houston. It's an excellent place and I recommend this hotel giving full rating to it.  The hotel is located less than half a mile from the Southwest Freeway and has green lawns on three sides which present a pleasant view from most of the rooms. There is a small shopping complex on the other side of the road, which had ‘Ottos’ restaurant and few outlets like ‘Old Navy’, ‘Bed, Bath and Beyond’ etc. My suite had a kitchenette and it had fridge, oven, stove, coffee maker and a good quantitiy of utensils and serveware. The bed was cozy with lot of soft pillows. The suite also had lot of towels. There is complimentary breakfast daily, which has lot of varieties. Also, thrice a week, for two hours in the evening, they had social dinner with beer, wine and appetizers. The hotel’s shuttle service is available to pick and drop you anywhere within five miles between 7 am to 7pm on weekdays. You can visit places like First Colony Mall, Target, and Wal-Mart etc. The staff is really is very courteous and their service is greatly appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r184824614-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>184824614</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>nice hotel, great staff and good location</t>
+  </si>
+  <si>
+    <t>We have stayed here before and this was another great stay. We were upgraded to a double suite with two bedrooms and two bathrooms which was perfect for our family. Rooms are very comfortable with good-sized bathrooms. Kitchen and living area adequate for the family. Nice lobby and social area with a home theater setup. Good breakfast spread with plenty of choices. Staff is very friendly and helpful. Plenty of food choices nearby, also kids' activities and shopping within walking distance. Gary, Martha, Rica, thanks for another wonderful stay !</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r182169799-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1571,39 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r162547457-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>162547457</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Staybridge Never Disappoints!</t>
+  </si>
+  <si>
+    <t>I recently stayed at this facility and as usual with this hotel chain it was outstanding.  The staff was excellant. The suites were very clean and modern.  I prefer the one bedroom suite and the price is reasonable.  I enjoy the fully stocked kitchen and they have a social hour most nights with food and sometimes complimentary beer.  Yes, I said beer.  This particular site had a movie theater and a very nice workout area.  There is also a park nearby that has a paved walk/run way and a place for the kids.  Also there is lots of shopping and a movie theater nearby.  I am definately staying here again when I travel for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed at this facility and as usual with this hotel chain it was outstanding.  The staff was excellant. The suites were very clean and modern.  I prefer the one bedroom suite and the price is reasonable.  I enjoy the fully stocked kitchen and they have a social hour most nights with food and sometimes complimentary beer.  Yes, I said beer.  This particular site had a movie theater and a very nice workout area.  There is also a park nearby that has a paved walk/run way and a place for the kids.  Also there is lots of shopping and a movie theater nearby.  I am definately staying here again when I travel for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r162509215-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>162509215</t>
+  </si>
+  <si>
+    <t>Great extended stay property</t>
+  </si>
+  <si>
+    <t>This is a quiet, clean, modern extended stay hotel.  Full kitchen with stove, dishwasher, microwave, refrigerator, and china and utensils.  Efficient staff.  Great breakfast.  Manager's reception on Tuesday, Wednesday, and Thursday with a light dinner, wine, and beer. Neat little lighted "pocket park" 5 minute walk from hotel with a 1/2 mile jog/walk track around a small pond.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r158678313-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1658,42 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r155341900-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>155341900</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Feels like you're home</t>
+  </si>
+  <si>
+    <t>This is by far one of the best down home hotels I've stayed at. Rooms were in excellent condition. Full size appliances. Has two eyed stove. Comes with pots, pans, utensils, plates, and cups. The bed is really comfortable. Nice flat screen tv and separate couch for living area. Staff is hit or miss. I had someone be really rude and someone be really nice. It's a toss up. The breakfast is decent, with lots of options. Walking distance to the AMC movie theater and 2 dozen restaurants. Five minute drive to First Colony food and shopping.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r154846415-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>154846415</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Fresh new look and feel</t>
+  </si>
+  <si>
+    <t>I have stayed in several staybridge locations and this one would rank on top of the list. A relatively new Staybridge with a retro look, clean rooms and new appliances.  Overall fresh look and feel. Located right next to a mall area with good shoping and food the hotel also has access to highway to drive to downtown Houston is also great.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r148396894-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1745,48 @@
     <t xml:space="preserve">The room was incredible. I loved how updated and modern everything was. When I checked in they mention the social hour from 5pm to 7pm. I didn't realize it would be complementary  dinner an drinks!  I was amazed with the service and the location. The shopping center located across the street had everything you could hope for. I won't stay anywhere else when I return to TX. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r145587787-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>145587787</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>It was OK - I was told best in the area</t>
+  </si>
+  <si>
+    <t>My stay was for 3 days - My feet would stick to the floor in the 'kitchen area' the entire visit.  When I arrived, the TV did not work. I asked for it to be fixed and I was told 'tomorrow'.   The person at the front desk finally came to the room and agreed it would not work (as his comments to me heavily implied that it was operator error and not a problem with the TV).
+ I asked for it to be fixed that evening and I was told '20 minutes'.  Over an hour later, I finally called the front desk to tell him I was going to bed, but the maintenance guy finally showed up.  He went through all the same steps I had taken and guess what - it still didn't work. He finally took parts from another room and got the TV to work. 
+I sat on the bed and my bottom touched the plywood platform. And I am not THAT heavy...so...not the best bed in the world.  Every time anyone closed a door on the hall I was in, my entire room shook.
+The towels were great - the snacks in the evenings were nice  - the location is within walking distance of a 16 screen movie theater and several places to eat.  Would I recommend staying here?  The people that were also in my group all raved about the place. Me, not so much...My stay was for 3 days - My feet would stick to the floor in the 'kitchen area' the entire visit.  When I arrived, the TV did not work. I asked for it to be fixed and I was told 'tomorrow'.   The person at the front desk finally came to the room and agreed it would not work (as his comments to me heavily implied that it was operator error and not a problem with the TV). I asked for it to be fixed that evening and I was told '20 minutes'.  Over an hour later, I finally called the front desk to tell him I was going to bed, but the maintenance guy finally showed up.  He went through all the same steps I had taken and guess what - it still didn't work. He finally took parts from another room and got the TV to work. I sat on the bed and my bottom touched the plywood platform. And I am not THAT heavy...so...not the best bed in the world.  Every time anyone closed a door on the hall I was in, my entire room shook.The towels were great - the snacks in the evenings were nice  - the location is within walking distance of a 16 screen movie theater and several places to eat.  Would I recommend staying here?  The people that were also in my group all raved about the place. Me, not so much - I would rather stay somewhere else and drive a little further as I found it only ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was for 3 days - My feet would stick to the floor in the 'kitchen area' the entire visit.  When I arrived, the TV did not work. I asked for it to be fixed and I was told 'tomorrow'.   The person at the front desk finally came to the room and agreed it would not work (as his comments to me heavily implied that it was operator error and not a problem with the TV).
+ I asked for it to be fixed that evening and I was told '20 minutes'.  Over an hour later, I finally called the front desk to tell him I was going to bed, but the maintenance guy finally showed up.  He went through all the same steps I had taken and guess what - it still didn't work. He finally took parts from another room and got the TV to work. 
+I sat on the bed and my bottom touched the plywood platform. And I am not THAT heavy...so...not the best bed in the world.  Every time anyone closed a door on the hall I was in, my entire room shook.
+The towels were great - the snacks in the evenings were nice  - the location is within walking distance of a 16 screen movie theater and several places to eat.  Would I recommend staying here?  The people that were also in my group all raved about the place. Me, not so much...My stay was for 3 days - My feet would stick to the floor in the 'kitchen area' the entire visit.  When I arrived, the TV did not work. I asked for it to be fixed and I was told 'tomorrow'.   The person at the front desk finally came to the room and agreed it would not work (as his comments to me heavily implied that it was operator error and not a problem with the TV). I asked for it to be fixed that evening and I was told '20 minutes'.  Over an hour later, I finally called the front desk to tell him I was going to bed, but the maintenance guy finally showed up.  He went through all the same steps I had taken and guess what - it still didn't work. He finally took parts from another room and got the TV to work. I sat on the bed and my bottom touched the plywood platform. And I am not THAT heavy...so...not the best bed in the world.  Every time anyone closed a door on the hall I was in, my entire room shook.The towels were great - the snacks in the evenings were nice  - the location is within walking distance of a 16 screen movie theater and several places to eat.  Would I recommend staying here?  The people that were also in my group all raved about the place. Me, not so much - I would rather stay somewhere else and drive a little further as I found it only ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r137376564-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>137376564</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Very Nice ,Very Helpful</t>
+  </si>
+  <si>
+    <t>Stayed at this unit for one night,  very clean, well kept.  The breakfast buffet was the best I have eaten in all my stays where it was included.  The pool area was very clean and well kept.  My wife loved the bbq area and lounge chairs.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r133720129-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1168,6 +1842,39 @@
   </si>
   <si>
     <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r126424029-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>126424029</t>
+  </si>
+  <si>
+    <t>03/20/2012</t>
+  </si>
+  <si>
+    <t>Nice room with modern decor, Great Breakfast</t>
+  </si>
+  <si>
+    <t>Nice decor, very clean, perfect breakfast and kitchens and utensils are complete ( include big fridge, microwave and dishwasher). The only complain is the noise of the AC is quite loud ( working and ac is cold). We love how the decor of the room, very modern looking and neat. We will be back. thank you. Breakfast is super - fresh fruits - strawberry and grape. Have yogurs, eggs, biscuits, scramble eggs, bacon, waffle, breads, juices, veggy drinks, can fruits for to go and many more.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r120658870-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>120658870</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>Love this hotel!</t>
+  </si>
+  <si>
+    <t>I stay all over the state for work and I actually look forward to staying here.  Friendly staff, new rooms kept clean.  Only complaint is the uncomfortable pillows..need a softer choice. Great value!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d1837056-r108028229-Staybridge_Suites_Houston_Stafford-Stafford_Texas.html</t>
@@ -1735,37 +2442,27 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1781,42 +2478,40 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1826,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1848,58 +2543,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
         <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1915,52 +2604,58 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1976,43 +2671,43 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>89</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>90</v>
-      </c>
       <c r="O6" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -2021,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="X6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2043,37 +2738,47 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -2121,13 +2826,13 @@
         <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2139,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
         <v>109</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>110</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2161,56 +2866,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>112</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>113</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>115</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
         <v>116</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
         <v>118</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>119</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2226,34 +2927,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>121</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>124</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>125</v>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>126</v>
-      </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2265,13 +2966,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
         <v>128</v>
-      </c>
-      <c r="X10" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -2287,56 +2988,58 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
         <v>131</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>132</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>133</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>134</v>
       </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>136</v>
-      </c>
       <c r="O11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
         <v>137</v>
-      </c>
-      <c r="X11" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12">
@@ -2352,35 +3055,31 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
         <v>140</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>141</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>142</v>
       </c>
-      <c r="K12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L12" t="s">
-        <v>144</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
-        <v>136</v>
-      </c>
-      <c r="O12" t="s">
-        <v>145</v>
-      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -2391,13 +3090,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2413,34 +3112,34 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
         <v>149</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>150</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>151</v>
       </c>
-      <c r="K13" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>154</v>
-      </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2452,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -2474,58 +3173,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
         <v>158</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>159</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>160</v>
       </c>
-      <c r="K14" t="s">
-        <v>161</v>
-      </c>
-      <c r="L14" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>163</v>
-      </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
         <v>4</v>
       </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -2541,56 +3240,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
         <v>167</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>168</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>169</v>
       </c>
-      <c r="K15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>163</v>
-      </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s">
         <v>172</v>
-      </c>
-      <c r="X15" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16">
@@ -2606,58 +3301,56 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
         <v>175</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>176</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>177</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>178</v>
       </c>
-      <c r="L16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>163</v>
-      </c>
       <c r="O16" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s">
         <v>180</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>181</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17">
@@ -2673,34 +3366,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>183</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>184</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>185</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>186</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>187</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>188</v>
-      </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2712,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X17" t="s">
         <v>189</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>190</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18">
@@ -2734,58 +3427,58 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>192</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>193</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>194</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>195</v>
       </c>
-      <c r="L18" t="s">
-        <v>196</v>
-      </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>196</v>
+      </c>
+      <c r="X18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s">
         <v>198</v>
-      </c>
-      <c r="X18" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -2801,34 +3494,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19" t="s">
         <v>201</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>202</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>203</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>204</v>
       </c>
-      <c r="L19" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>197</v>
-      </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2839,10 +3532,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>205</v>
+      </c>
+      <c r="X19" t="s">
+        <v>206</v>
+      </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
@@ -2858,7 +3555,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2867,45 +3564,47 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X20" t="s">
+        <v>214</v>
+      </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
@@ -2921,7 +3620,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2930,25 +3629,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2960,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
@@ -2982,56 +3681,52 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>230</v>
+      </c>
+      <c r="O22" t="s">
         <v>221</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>222</v>
-      </c>
-      <c r="J22" t="s">
-        <v>223</v>
-      </c>
-      <c r="K22" t="s">
-        <v>224</v>
-      </c>
-      <c r="L22" t="s">
-        <v>225</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="s">
-        <v>226</v>
-      </c>
-      <c r="O22" t="s">
-        <v>91</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -3047,7 +3742,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3056,43 +3751,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>233</v>
+        <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>236</v>
-      </c>
-      <c r="X23" t="s">
-        <v>237</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
@@ -3108,7 +3803,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3117,33 +3812,31 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3153,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
@@ -3175,7 +3868,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3184,33 +3877,33 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+      <c r="N25" t="s">
+        <v>254</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3220,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="X25" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Y25" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
@@ -3242,7 +3935,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3251,49 +3944,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
@@ -3309,7 +4000,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3318,34 +4009,34 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3354,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="X27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
@@ -3376,7 +4067,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3385,49 +4076,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29">
@@ -3443,7 +4128,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3452,37 +4137,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+      <c r="N29" t="s">
+        <v>288</v>
+      </c>
+      <c r="O29" t="s">
+        <v>99</v>
+      </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>289</v>
+      </c>
+      <c r="X29" t="s">
+        <v>290</v>
+      </c>
       <c r="Y29" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -3498,7 +4193,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3507,49 +4202,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J30" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s">
-        <v>91</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>298</v>
+      </c>
+      <c r="X30" t="s">
+        <v>299</v>
+      </c>
       <c r="Y30" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
@@ -3565,7 +4254,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3574,49 +4263,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="J31" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K31" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L31" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>307</v>
+      </c>
+      <c r="X31" t="s">
+        <v>308</v>
+      </c>
       <c r="Y31" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
@@ -3632,7 +4321,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3641,25 +4330,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
         <v>306</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3673,7 +4362,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
@@ -3689,7 +4378,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3698,38 +4387,32 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="J33" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O33" t="s">
-        <v>72</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3737,10 +4420,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>321</v>
+      </c>
+      <c r="X33" t="s">
+        <v>322</v>
+      </c>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
@@ -3756,7 +4443,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3765,41 +4452,35 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3807,7 +4488,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35">
@@ -3823,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3832,41 +4513,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="O35" t="s">
-        <v>91</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3874,7 +4551,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
@@ -3890,7 +4567,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3899,45 +4576,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>341</v>
+      </c>
+      <c r="O36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>342</v>
+      </c>
+      <c r="X36" t="s">
+        <v>343</v>
+      </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
@@ -3953,7 +4628,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3962,49 +4637,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>351</v>
+      </c>
+      <c r="X37" t="s">
+        <v>352</v>
+      </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38">
@@ -4020,7 +4693,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4029,49 +4702,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>341</v>
+        <v>245</v>
       </c>
       <c r="O38" t="s">
-        <v>127</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
         <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>359</v>
+      </c>
+      <c r="X38" t="s">
+        <v>360</v>
+      </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39">
@@ -4087,7 +4760,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4096,49 +4769,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>368</v>
+      </c>
+      <c r="X39" t="s">
+        <v>369</v>
+      </c>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40">
@@ -4154,7 +4821,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4163,45 +4830,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="K40" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="L40" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="N40" t="s">
+        <v>376</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>377</v>
+      </c>
+      <c r="X40" t="s">
+        <v>378</v>
+      </c>
       <c r="Y40" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
@@ -4217,7 +4882,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4226,49 +4891,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s">
-        <v>91</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>386</v>
+      </c>
+      <c r="X41" t="s">
+        <v>387</v>
+      </c>
       <c r="Y41" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42">
@@ -4284,7 +4949,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4293,28 +4958,24 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="L42" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s">
-        <v>365</v>
-      </c>
-      <c r="O42" t="s">
-        <v>91</v>
-      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
@@ -4332,10 +4993,14 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>394</v>
+      </c>
+      <c r="X42" t="s">
+        <v>395</v>
+      </c>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
@@ -4351,7 +5016,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4360,49 +5025,43 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="J43" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>403</v>
+      </c>
+      <c r="X43" t="s">
+        <v>404</v>
+      </c>
       <c r="Y43" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44">
@@ -4418,7 +5077,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4427,38 +5086,34 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="O44" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -4466,10 +5121,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>412</v>
+      </c>
+      <c r="X44" t="s">
+        <v>413</v>
+      </c>
       <c r="Y44" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45">
@@ -4485,7 +5144,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4494,49 +5153,2076 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="J45" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" t="s">
+        <v>99</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="N45" t="s">
-        <v>377</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>420</v>
+      </c>
+      <c r="X45" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>423</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>424</v>
+      </c>
+      <c r="J46" t="s">
+        <v>425</v>
+      </c>
+      <c r="K46" t="s">
+        <v>426</v>
+      </c>
+      <c r="L46" t="s">
+        <v>427</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>320</v>
+      </c>
+      <c r="O46" t="s">
+        <v>99</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>428</v>
+      </c>
+      <c r="X46" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>431</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>432</v>
+      </c>
+      <c r="J47" t="s">
+        <v>433</v>
+      </c>
+      <c r="K47" t="s">
+        <v>434</v>
+      </c>
+      <c r="L47" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>436</v>
+      </c>
+      <c r="O47" t="s">
+        <v>99</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>437</v>
+      </c>
+      <c r="X47" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>441</v>
+      </c>
+      <c r="J48" t="s">
+        <v>442</v>
+      </c>
+      <c r="K48" t="s">
+        <v>443</v>
+      </c>
+      <c r="L48" t="s">
+        <v>444</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>445</v>
+      </c>
+      <c r="O48" t="s">
+        <v>99</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>446</v>
+      </c>
+      <c r="X48" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>449</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>450</v>
+      </c>
+      <c r="J49" t="s">
+        <v>451</v>
+      </c>
+      <c r="K49" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" t="s">
+        <v>452</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>411</v>
+      </c>
+      <c r="O49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>453</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>454</v>
+      </c>
+      <c r="J50" t="s">
+        <v>455</v>
+      </c>
+      <c r="K50" t="s">
+        <v>456</v>
+      </c>
+      <c r="L50" t="s">
+        <v>457</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>458</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>459</v>
+      </c>
+      <c r="J51" t="s">
+        <v>460</v>
+      </c>
+      <c r="K51" t="s">
+        <v>461</v>
+      </c>
+      <c r="L51" t="s">
+        <v>462</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>463</v>
+      </c>
+      <c r="O51" t="s">
+        <v>116</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>465</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" t="s">
+        <v>467</v>
+      </c>
+      <c r="K52" t="s">
+        <v>468</v>
+      </c>
+      <c r="L52" t="s">
+        <v>469</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>470</v>
+      </c>
+      <c r="O52" t="s">
+        <v>99</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>472</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>474</v>
+      </c>
+      <c r="K53" t="s">
+        <v>475</v>
+      </c>
+      <c r="L53" t="s">
+        <v>476</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>477</v>
+      </c>
+      <c r="O53" t="s">
+        <v>99</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>480</v>
+      </c>
+      <c r="J54" t="s">
+        <v>481</v>
+      </c>
+      <c r="K54" t="s">
+        <v>482</v>
+      </c>
+      <c r="L54" t="s">
+        <v>483</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>477</v>
+      </c>
+      <c r="O54" t="s">
+        <v>116</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>485</v>
+      </c>
+      <c r="J55" t="s">
+        <v>486</v>
+      </c>
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+      <c r="L55" t="s">
+        <v>488</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>489</v>
+      </c>
+      <c r="O55" t="s">
+        <v>99</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>490</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>491</v>
+      </c>
+      <c r="J56" t="s">
+        <v>492</v>
+      </c>
+      <c r="K56" t="s">
+        <v>493</v>
+      </c>
+      <c r="L56" t="s">
+        <v>494</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>489</v>
+      </c>
+      <c r="O56" t="s">
+        <v>99</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
         <v>3</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s">
-        <v>382</v>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>495</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>496</v>
+      </c>
+      <c r="J57" t="s">
+        <v>497</v>
+      </c>
+      <c r="K57" t="s">
+        <v>498</v>
+      </c>
+      <c r="L57" t="s">
+        <v>499</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>500</v>
+      </c>
+      <c r="O57" t="s">
+        <v>99</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>501</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" t="s">
+        <v>503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>504</v>
+      </c>
+      <c r="L58" t="s">
+        <v>505</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>506</v>
+      </c>
+      <c r="O58" t="s">
+        <v>99</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>508</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>509</v>
+      </c>
+      <c r="J59" t="s">
+        <v>503</v>
+      </c>
+      <c r="K59" t="s">
+        <v>510</v>
+      </c>
+      <c r="L59" t="s">
+        <v>511</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>506</v>
+      </c>
+      <c r="O59" t="s">
+        <v>99</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>512</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>513</v>
+      </c>
+      <c r="J60" t="s">
+        <v>514</v>
+      </c>
+      <c r="K60" t="s">
+        <v>515</v>
+      </c>
+      <c r="L60" t="s">
+        <v>516</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>517</v>
+      </c>
+      <c r="O60" t="s">
+        <v>116</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>518</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>519</v>
+      </c>
+      <c r="J61" t="s">
+        <v>520</v>
+      </c>
+      <c r="K61" t="s">
+        <v>521</v>
+      </c>
+      <c r="L61" t="s">
+        <v>522</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>524</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>525</v>
+      </c>
+      <c r="J62" t="s">
+        <v>526</v>
+      </c>
+      <c r="K62" t="s">
+        <v>527</v>
+      </c>
+      <c r="L62" t="s">
+        <v>528</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>529</v>
+      </c>
+      <c r="O62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>530</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>531</v>
+      </c>
+      <c r="J63" t="s">
+        <v>532</v>
+      </c>
+      <c r="K63" t="s">
+        <v>533</v>
+      </c>
+      <c r="L63" t="s">
+        <v>534</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>535</v>
+      </c>
+      <c r="O63" t="s">
+        <v>99</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>536</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>537</v>
+      </c>
+      <c r="J64" t="s">
+        <v>538</v>
+      </c>
+      <c r="K64" t="s">
+        <v>539</v>
+      </c>
+      <c r="L64" t="s">
+        <v>540</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>541</v>
+      </c>
+      <c r="O64" t="s">
+        <v>99</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>542</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>543</v>
+      </c>
+      <c r="J65" t="s">
+        <v>544</v>
+      </c>
+      <c r="K65" t="s">
+        <v>545</v>
+      </c>
+      <c r="L65" t="s">
+        <v>546</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>547</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>549</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>550</v>
+      </c>
+      <c r="J66" t="s">
+        <v>551</v>
+      </c>
+      <c r="K66" t="s">
+        <v>552</v>
+      </c>
+      <c r="L66" t="s">
+        <v>553</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>547</v>
+      </c>
+      <c r="O66" t="s">
+        <v>99</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>554</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>555</v>
+      </c>
+      <c r="J67" t="s">
+        <v>556</v>
+      </c>
+      <c r="K67" t="s">
+        <v>557</v>
+      </c>
+      <c r="L67" t="s">
+        <v>558</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>559</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>560</v>
+      </c>
+      <c r="J68" t="s">
+        <v>561</v>
+      </c>
+      <c r="K68" t="s">
+        <v>562</v>
+      </c>
+      <c r="L68" t="s">
+        <v>563</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>517</v>
+      </c>
+      <c r="O68" t="s">
+        <v>99</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>566</v>
+      </c>
+      <c r="J69" t="s">
+        <v>567</v>
+      </c>
+      <c r="K69" t="s">
+        <v>568</v>
+      </c>
+      <c r="L69" t="s">
+        <v>569</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>570</v>
+      </c>
+      <c r="O69" t="s">
+        <v>99</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>571</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>572</v>
+      </c>
+      <c r="J70" t="s">
+        <v>573</v>
+      </c>
+      <c r="K70" t="s">
+        <v>574</v>
+      </c>
+      <c r="L70" t="s">
+        <v>575</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>576</v>
+      </c>
+      <c r="O70" t="s">
+        <v>116</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>578</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>579</v>
+      </c>
+      <c r="J71" t="s">
+        <v>580</v>
+      </c>
+      <c r="K71" t="s">
+        <v>581</v>
+      </c>
+      <c r="L71" t="s">
+        <v>582</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>583</v>
+      </c>
+      <c r="O71" t="s">
+        <v>116</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>584</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>585</v>
+      </c>
+      <c r="J72" t="s">
+        <v>586</v>
+      </c>
+      <c r="K72" t="s">
+        <v>587</v>
+      </c>
+      <c r="L72" t="s">
+        <v>588</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>589</v>
+      </c>
+      <c r="O72" t="s">
+        <v>116</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>590</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>591</v>
+      </c>
+      <c r="J73" t="s">
+        <v>592</v>
+      </c>
+      <c r="K73" t="s">
+        <v>593</v>
+      </c>
+      <c r="L73" t="s">
+        <v>594</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>595</v>
+      </c>
+      <c r="O73" t="s">
+        <v>116</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>596</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>597</v>
+      </c>
+      <c r="J74" t="s">
+        <v>598</v>
+      </c>
+      <c r="K74" t="s">
+        <v>599</v>
+      </c>
+      <c r="L74" t="s">
+        <v>600</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>601</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>602</v>
+      </c>
+      <c r="J75" t="s">
+        <v>603</v>
+      </c>
+      <c r="K75" t="s">
+        <v>604</v>
+      </c>
+      <c r="L75" t="s">
+        <v>605</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>606</v>
+      </c>
+      <c r="O75" t="s">
+        <v>116</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60595</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>607</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>608</v>
+      </c>
+      <c r="J76" t="s">
+        <v>609</v>
+      </c>
+      <c r="K76" t="s">
+        <v>610</v>
+      </c>
+      <c r="L76" t="s">
+        <v>611</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>606</v>
+      </c>
+      <c r="O76" t="s">
+        <v>80</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
